--- a/Data_Analyst/House_Price.xlsx
+++ b/Data_Analyst/House_Price.xlsx
@@ -6948,7 +6948,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6966,6 +6966,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -7013,7 +7019,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">

--- a/Data_Analyst/House_Price.xlsx
+++ b/Data_Analyst/House_Price.xlsx
@@ -6948,7 +6948,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6966,12 +6966,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -7002,7 +6996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7018,9 +7012,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7342,24 +7333,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="50.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="49.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="54.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="34.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="35.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="50.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="49.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="27.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="54.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="34.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="35.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -8119,7 +8110,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="4" t="s">
         <v>36</v>
       </c>
@@ -8169,7 +8160,7 @@
       <c r="J16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
         <v>139</v>
       </c>
@@ -8219,7 +8210,7 @@
       <c r="J17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
         <v>148</v>
       </c>
@@ -8269,7 +8260,7 @@
       <c r="J18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
         <v>139</v>
       </c>
@@ -8319,7 +8310,7 @@
       <c r="J19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="6"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
         <v>139</v>
       </c>
@@ -8369,7 +8360,7 @@
       <c r="J20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="6"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
         <v>139</v>
       </c>
@@ -8419,7 +8410,7 @@
       <c r="J21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K21" s="6"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
         <v>139</v>
       </c>
@@ -8469,7 +8460,7 @@
       <c r="J22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K22" s="6"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
         <v>139</v>
       </c>
@@ -8519,7 +8510,7 @@
       <c r="J23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="6"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
         <v>139</v>
       </c>
@@ -8569,7 +8560,7 @@
       <c r="J24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K24" s="6"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
         <v>139</v>
       </c>
@@ -8619,7 +8610,7 @@
       <c r="J25" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K25" s="6"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
         <v>139</v>
       </c>
@@ -8669,7 +8660,7 @@
       <c r="J26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K26" s="6"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
         <v>139</v>
       </c>
@@ -8719,7 +8710,7 @@
       <c r="J27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="6"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="1" t="s">
         <v>148</v>
       </c>
@@ -8769,7 +8760,7 @@
       <c r="J28" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K28" s="6"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
         <v>139</v>
       </c>
@@ -8819,7 +8810,7 @@
       <c r="J29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K29" s="6"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
         <v>139</v>
       </c>
@@ -8865,7 +8856,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="6"/>
+      <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
         <v>139</v>
       </c>
@@ -8915,7 +8906,7 @@
       <c r="J31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K31" s="6"/>
+      <c r="K31" s="1"/>
       <c r="L31" s="1" t="s">
         <v>139</v>
       </c>
@@ -8965,7 +8956,7 @@
       <c r="J32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K32" s="6"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
         <v>139</v>
       </c>
@@ -9015,7 +9006,7 @@
       <c r="J33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K33" s="6"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
         <v>139</v>
       </c>
@@ -9065,7 +9056,7 @@
       <c r="J34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="6"/>
+      <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
         <v>139</v>
       </c>
@@ -9115,7 +9106,7 @@
       <c r="J35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="6"/>
+      <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
         <v>148</v>
       </c>
@@ -9165,7 +9156,7 @@
       <c r="J36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="6"/>
+      <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
         <v>139</v>
       </c>
@@ -9215,7 +9206,7 @@
       <c r="J37" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K37" s="6"/>
+      <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
         <v>139</v>
       </c>
@@ -9265,7 +9256,7 @@
       <c r="J38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="6"/>
+      <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
         <v>259</v>
       </c>
@@ -9315,7 +9306,7 @@
       <c r="J39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K39" s="6"/>
+      <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
         <v>139</v>
       </c>
@@ -9365,7 +9356,7 @@
       <c r="J40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K40" s="6"/>
+      <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
         <v>148</v>
       </c>
@@ -9415,7 +9406,7 @@
       <c r="J41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="6"/>
+      <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
         <v>148</v>
       </c>
@@ -9465,7 +9456,7 @@
       <c r="J42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K42" s="6"/>
+      <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
         <v>139</v>
       </c>
@@ -9515,7 +9506,7 @@
       <c r="J43" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K43" s="6"/>
+      <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
         <v>139</v>
       </c>
@@ -9565,7 +9556,7 @@
       <c r="J44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K44" s="6"/>
+      <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
         <v>148</v>
       </c>
@@ -9615,7 +9606,7 @@
       <c r="J45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K45" s="6"/>
+      <c r="K45" s="1"/>
       <c r="L45" s="1" t="s">
         <v>148</v>
       </c>
@@ -9665,7 +9656,7 @@
       <c r="J46" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K46" s="6"/>
+      <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
         <v>139</v>
       </c>
@@ -9715,7 +9706,7 @@
       <c r="J47" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K47" s="6"/>
+      <c r="K47" s="1"/>
       <c r="L47" s="1" t="s">
         <v>139</v>
       </c>
@@ -9765,7 +9756,7 @@
       <c r="J48" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K48" s="6"/>
+      <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
         <v>139</v>
       </c>
@@ -9815,7 +9806,7 @@
       <c r="J49" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K49" s="6"/>
+      <c r="K49" s="1"/>
       <c r="L49" s="1" t="s">
         <v>318</v>
       </c>
@@ -9865,7 +9856,7 @@
       <c r="J50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K50" s="6"/>
+      <c r="K50" s="1"/>
       <c r="L50" s="1" t="s">
         <v>139</v>
       </c>
@@ -9915,7 +9906,7 @@
       <c r="J51" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K51" s="6"/>
+      <c r="K51" s="1"/>
       <c r="L51" s="1" t="s">
         <v>139</v>
       </c>
@@ -9965,7 +9956,7 @@
       <c r="J52" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K52" s="6"/>
+      <c r="K52" s="1"/>
       <c r="L52" s="1" t="s">
         <v>139</v>
       </c>
@@ -10015,7 +10006,7 @@
       <c r="J53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K53" s="6"/>
+      <c r="K53" s="1"/>
       <c r="L53" s="1" t="s">
         <v>139</v>
       </c>
@@ -10065,7 +10056,7 @@
       <c r="J54" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K54" s="6"/>
+      <c r="K54" s="1"/>
       <c r="L54" s="1" t="s">
         <v>139</v>
       </c>
@@ -10115,7 +10106,7 @@
       <c r="J55" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K55" s="6"/>
+      <c r="K55" s="1"/>
       <c r="L55" s="1" t="s">
         <v>139</v>
       </c>
@@ -10165,7 +10156,7 @@
       <c r="J56" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K56" s="6"/>
+      <c r="K56" s="1"/>
       <c r="L56" s="1" t="s">
         <v>139</v>
       </c>
@@ -10215,7 +10206,7 @@
       <c r="J57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K57" s="6"/>
+      <c r="K57" s="1"/>
       <c r="L57" s="1" t="s">
         <v>139</v>
       </c>
@@ -10265,7 +10256,7 @@
       <c r="J58" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K58" s="6"/>
+      <c r="K58" s="1"/>
       <c r="L58" s="1" t="s">
         <v>139</v>
       </c>
@@ -10315,7 +10306,7 @@
       <c r="J59" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K59" s="6"/>
+      <c r="K59" s="1"/>
       <c r="L59" s="1" t="s">
         <v>139</v>
       </c>
@@ -10365,7 +10356,7 @@
       <c r="J60" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K60" s="6"/>
+      <c r="K60" s="1"/>
       <c r="L60" s="1" t="s">
         <v>139</v>
       </c>
@@ -10415,7 +10406,7 @@
       <c r="J61" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K61" s="6"/>
+      <c r="K61" s="1"/>
       <c r="L61" s="1" t="s">
         <v>139</v>
       </c>
@@ -10465,7 +10456,7 @@
       <c r="J62" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K62" s="6"/>
+      <c r="K62" s="1"/>
       <c r="L62" s="1" t="s">
         <v>139</v>
       </c>
@@ -10515,7 +10506,7 @@
       <c r="J63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K63" s="6"/>
+      <c r="K63" s="1"/>
       <c r="L63" s="1" t="s">
         <v>148</v>
       </c>
@@ -10565,7 +10556,7 @@
       <c r="J64" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K64" s="6"/>
+      <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
         <v>139</v>
       </c>
@@ -10615,7 +10606,7 @@
       <c r="J65" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K65" s="6"/>
+      <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
         <v>139</v>
       </c>
@@ -10665,7 +10656,7 @@
       <c r="J66" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K66" s="6"/>
+      <c r="K66" s="1"/>
       <c r="L66" s="1" t="s">
         <v>139</v>
       </c>
@@ -10715,7 +10706,7 @@
       <c r="J67" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K67" s="6"/>
+      <c r="K67" s="1"/>
       <c r="L67" s="1" t="s">
         <v>139</v>
       </c>
@@ -10765,7 +10756,7 @@
       <c r="J68" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K68" s="6"/>
+      <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
         <v>139</v>
       </c>
@@ -10815,7 +10806,7 @@
       <c r="J69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K69" s="6"/>
+      <c r="K69" s="1"/>
       <c r="L69" s="1" t="s">
         <v>148</v>
       </c>
@@ -10865,7 +10856,7 @@
       <c r="J70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K70" s="6"/>
+      <c r="K70" s="1"/>
       <c r="L70" s="1" t="s">
         <v>148</v>
       </c>
@@ -10915,7 +10906,7 @@
       <c r="J71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K71" s="6"/>
+      <c r="K71" s="1"/>
       <c r="L71" s="1" t="s">
         <v>139</v>
       </c>
@@ -10965,7 +10956,7 @@
       <c r="J72" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K72" s="6"/>
+      <c r="K72" s="1"/>
       <c r="L72" s="1" t="s">
         <v>148</v>
       </c>
@@ -11015,7 +11006,7 @@
       <c r="J73" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K73" s="6"/>
+      <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
         <v>148</v>
       </c>
@@ -11065,7 +11056,7 @@
       <c r="J74" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K74" s="6"/>
+      <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
         <v>139</v>
       </c>
@@ -11111,7 +11102,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="6"/>
+      <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
         <v>139</v>
       </c>
@@ -11161,7 +11152,7 @@
       <c r="J76" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K76" s="6"/>
+      <c r="K76" s="1"/>
       <c r="L76" s="1" t="s">
         <v>139</v>
       </c>
@@ -11207,11 +11198,11 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="6"/>
+      <c r="K77" s="1"/>
       <c r="L77" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M77" s="6"/>
+      <c r="M77" s="1"/>
       <c r="N77" s="1" t="s">
         <v>415</v>
       </c>
@@ -11255,7 +11246,7 @@
       <c r="J78" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K78" s="6"/>
+      <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
         <v>139</v>
       </c>
@@ -11305,7 +11296,7 @@
       <c r="J79" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K79" s="6"/>
+      <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
         <v>139</v>
       </c>
@@ -11355,7 +11346,7 @@
       <c r="J80" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K80" s="6"/>
+      <c r="K80" s="1"/>
       <c r="L80" s="1" t="s">
         <v>139</v>
       </c>
@@ -11405,7 +11396,7 @@
       <c r="J81" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K81" s="6"/>
+      <c r="K81" s="1"/>
       <c r="L81" s="1" t="s">
         <v>139</v>
       </c>
@@ -11455,7 +11446,7 @@
       <c r="J82" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K82" s="6"/>
+      <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
         <v>139</v>
       </c>
@@ -11505,7 +11496,7 @@
       <c r="J83" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K83" s="6"/>
+      <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
         <v>139</v>
       </c>
@@ -11555,7 +11546,7 @@
       <c r="J84" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K84" s="6"/>
+      <c r="K84" s="1"/>
       <c r="L84" s="1" t="s">
         <v>139</v>
       </c>
@@ -11605,7 +11596,7 @@
       <c r="J85" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K85" s="6"/>
+      <c r="K85" s="1"/>
       <c r="L85" s="1" t="s">
         <v>139</v>
       </c>
@@ -11651,7 +11642,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="6"/>
+      <c r="K86" s="1"/>
       <c r="L86" s="1" t="s">
         <v>139</v>
       </c>
@@ -11701,7 +11692,7 @@
       <c r="J87" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K87" s="6"/>
+      <c r="K87" s="1"/>
       <c r="L87" s="1" t="s">
         <v>148</v>
       </c>
@@ -11751,7 +11742,7 @@
       <c r="J88" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K88" s="6"/>
+      <c r="K88" s="1"/>
       <c r="L88" s="1" t="s">
         <v>139</v>
       </c>
@@ -11801,7 +11792,7 @@
       <c r="J89" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K89" s="6"/>
+      <c r="K89" s="1"/>
       <c r="L89" s="1" t="s">
         <v>139</v>
       </c>
@@ -11851,7 +11842,7 @@
       <c r="J90" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K90" s="6"/>
+      <c r="K90" s="1"/>
       <c r="L90" s="1" t="s">
         <v>139</v>
       </c>
@@ -11901,7 +11892,7 @@
       <c r="J91" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K91" s="6"/>
+      <c r="K91" s="1"/>
       <c r="L91" s="1" t="s">
         <v>139</v>
       </c>
@@ -11951,7 +11942,7 @@
       <c r="J92" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K92" s="6"/>
+      <c r="K92" s="1"/>
       <c r="L92" s="1" t="s">
         <v>318</v>
       </c>
@@ -12001,7 +11992,7 @@
       <c r="J93" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K93" s="6"/>
+      <c r="K93" s="1"/>
       <c r="L93" s="1" t="s">
         <v>139</v>
       </c>
@@ -12051,7 +12042,7 @@
       <c r="J94" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K94" s="6"/>
+      <c r="K94" s="1"/>
       <c r="L94" s="1" t="s">
         <v>139</v>
       </c>
@@ -12101,7 +12092,7 @@
       <c r="J95" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K95" s="6"/>
+      <c r="K95" s="1"/>
       <c r="L95" s="1" t="s">
         <v>139</v>
       </c>
@@ -12145,12 +12136,12 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="7" t="s">
+      <c r="K96" s="1"/>
+      <c r="L96" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
       <c r="O96" s="1" t="s">
         <v>28</v>
       </c>
@@ -12185,12 +12176,12 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="6"/>
+      <c r="K97" s="1"/>
       <c r="L97" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
       <c r="O97" s="1" t="s">
         <v>28</v>
       </c>
@@ -12225,12 +12216,12 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="6"/>
+      <c r="K98" s="1"/>
       <c r="L98" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
       <c r="O98" s="1" t="s">
         <v>28</v>
       </c>
@@ -12265,12 +12256,12 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="6"/>
+      <c r="K99" s="1"/>
       <c r="L99" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
       <c r="O99" s="1" t="s">
         <v>28</v>
       </c>
@@ -12294,7 +12285,7 @@
       <c r="C100" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D100" s="6"/>
+      <c r="D100" s="1"/>
       <c r="E100" s="2">
         <v>44197</v>
       </c>
@@ -12303,12 +12294,12 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="6"/>
+      <c r="K100" s="1"/>
       <c r="L100" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
       <c r="O100" s="1" t="s">
         <v>28</v>
       </c>
@@ -12343,12 +12334,12 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="6"/>
+      <c r="K101" s="1"/>
       <c r="L101" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
       <c r="O101" s="1" t="s">
         <v>28</v>
       </c>
@@ -12383,12 +12374,12 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="6"/>
+      <c r="K102" s="1"/>
       <c r="L102" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
       <c r="O102" s="1" t="s">
         <v>28</v>
       </c>
@@ -12423,12 +12414,12 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="6"/>
+      <c r="K103" s="1"/>
       <c r="L103" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
       <c r="O103" s="1" t="s">
         <v>28</v>
       </c>
@@ -12463,12 +12454,12 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="6"/>
+      <c r="K104" s="1"/>
       <c r="L104" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
       <c r="O104" s="1" t="s">
         <v>28</v>
       </c>
@@ -12503,12 +12494,12 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="7" t="s">
+      <c r="K105" s="1"/>
+      <c r="L105" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
       <c r="O105" s="1" t="s">
         <v>28</v>
       </c>
@@ -12543,12 +12534,12 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="6"/>
+      <c r="K106" s="1"/>
       <c r="L106" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
       <c r="O106" s="1" t="s">
         <v>28</v>
       </c>
@@ -12583,12 +12574,12 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="6"/>
+      <c r="K107" s="1"/>
       <c r="L107" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
       <c r="O107" s="1" t="s">
         <v>28</v>
       </c>
@@ -12623,12 +12614,12 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
-      <c r="K108" s="6"/>
+      <c r="K108" s="1"/>
       <c r="L108" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
       <c r="O108" s="1" t="s">
         <v>28</v>
       </c>
@@ -12663,12 +12654,12 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="6"/>
+      <c r="K109" s="1"/>
       <c r="L109" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
       <c r="O109" s="1" t="s">
         <v>28</v>
       </c>
@@ -12703,12 +12694,12 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="6"/>
+      <c r="K110" s="1"/>
       <c r="L110" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
       <c r="O110" s="1" t="s">
         <v>28</v>
       </c>
@@ -12743,12 +12734,12 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="6"/>
+      <c r="K111" s="1"/>
       <c r="L111" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
       <c r="O111" s="1" t="s">
         <v>28</v>
       </c>
@@ -12772,7 +12763,7 @@
       <c r="C112" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D112" s="6"/>
+      <c r="D112" s="1"/>
       <c r="E112" s="2">
         <v>44197</v>
       </c>
@@ -12781,12 +12772,12 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
-      <c r="K112" s="6"/>
+      <c r="K112" s="1"/>
       <c r="L112" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
       <c r="O112" s="1" t="s">
         <v>28</v>
       </c>
@@ -12821,12 +12812,12 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
-      <c r="K113" s="6"/>
+      <c r="K113" s="1"/>
       <c r="L113" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
       <c r="O113" s="1" t="s">
         <v>28</v>
       </c>
@@ -12861,12 +12852,12 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
-      <c r="K114" s="6"/>
+      <c r="K114" s="1"/>
       <c r="L114" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
       <c r="O114" s="1" t="s">
         <v>28</v>
       </c>
@@ -12901,12 +12892,12 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
-      <c r="K115" s="6"/>
+      <c r="K115" s="1"/>
       <c r="L115" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
       <c r="O115" s="1" t="s">
         <v>28</v>
       </c>
@@ -12941,12 +12932,12 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
-      <c r="K116" s="6"/>
+      <c r="K116" s="1"/>
       <c r="L116" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M116" s="6"/>
-      <c r="N116" s="6"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
       <c r="O116" s="1" t="s">
         <v>28</v>
       </c>
@@ -12970,7 +12961,7 @@
       <c r="C117" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D117" s="6"/>
+      <c r="D117" s="1"/>
       <c r="E117" s="2">
         <v>44197</v>
       </c>
@@ -12979,12 +12970,12 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
-      <c r="K117" s="6"/>
+      <c r="K117" s="1"/>
       <c r="L117" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M117" s="6"/>
-      <c r="N117" s="6"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
       <c r="O117" s="1" t="s">
         <v>28</v>
       </c>
@@ -13019,12 +13010,12 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
-      <c r="K118" s="6"/>
+      <c r="K118" s="1"/>
       <c r="L118" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
       <c r="O118" s="1" t="s">
         <v>28</v>
       </c>
@@ -13048,7 +13039,7 @@
       <c r="C119" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D119" s="6"/>
+      <c r="D119" s="1"/>
       <c r="E119" s="2">
         <v>44197</v>
       </c>
@@ -13057,12 +13048,12 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
-      <c r="K119" s="6"/>
+      <c r="K119" s="1"/>
       <c r="L119" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
       <c r="O119" s="1" t="s">
         <v>28</v>
       </c>
@@ -13097,12 +13088,12 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
-      <c r="K120" s="6"/>
+      <c r="K120" s="1"/>
       <c r="L120" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
       <c r="O120" s="1" t="s">
         <v>28</v>
       </c>
@@ -13126,7 +13117,7 @@
       <c r="C121" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D121" s="6"/>
+      <c r="D121" s="1"/>
       <c r="E121" s="2">
         <v>44197</v>
       </c>
@@ -13135,12 +13126,12 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
-      <c r="K121" s="6"/>
+      <c r="K121" s="1"/>
       <c r="L121" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M121" s="6"/>
-      <c r="N121" s="6"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
       <c r="O121" s="1" t="s">
         <v>28</v>
       </c>
@@ -13175,12 +13166,12 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
-      <c r="K122" s="6"/>
+      <c r="K122" s="1"/>
       <c r="L122" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M122" s="6"/>
-      <c r="N122" s="6"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
       <c r="O122" s="1" t="s">
         <v>28</v>
       </c>
@@ -13204,7 +13195,7 @@
       <c r="C123" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D123" s="6"/>
+      <c r="D123" s="1"/>
       <c r="E123" s="2">
         <v>44197</v>
       </c>
@@ -13213,12 +13204,12 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
-      <c r="K123" s="6"/>
+      <c r="K123" s="1"/>
       <c r="L123" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M123" s="6"/>
-      <c r="N123" s="6"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
       <c r="O123" s="1" t="s">
         <v>28</v>
       </c>
@@ -13253,12 +13244,12 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="6"/>
+      <c r="K124" s="1"/>
       <c r="L124" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M124" s="6"/>
-      <c r="N124" s="6"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
       <c r="O124" s="1" t="s">
         <v>28</v>
       </c>
@@ -13293,12 +13284,12 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
-      <c r="K125" s="6"/>
+      <c r="K125" s="1"/>
       <c r="L125" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
       <c r="O125" s="1" t="s">
         <v>28</v>
       </c>
@@ -13322,7 +13313,7 @@
       <c r="C126" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D126" s="6"/>
+      <c r="D126" s="1"/>
       <c r="E126" s="2">
         <v>44197</v>
       </c>
@@ -13331,12 +13322,12 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
-      <c r="K126" s="6"/>
+      <c r="K126" s="1"/>
       <c r="L126" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M126" s="6"/>
-      <c r="N126" s="6"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
       <c r="O126" s="1" t="s">
         <v>28</v>
       </c>
@@ -13360,7 +13351,7 @@
       <c r="C127" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D127" s="6"/>
+      <c r="D127" s="1"/>
       <c r="E127" s="2">
         <v>44197</v>
       </c>
@@ -13369,12 +13360,12 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
-      <c r="K127" s="6"/>
+      <c r="K127" s="1"/>
       <c r="L127" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
       <c r="O127" s="1" t="s">
         <v>28</v>
       </c>
@@ -13409,12 +13400,12 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
-      <c r="K128" s="6"/>
+      <c r="K128" s="1"/>
       <c r="L128" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M128" s="6"/>
-      <c r="N128" s="6"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
       <c r="O128" s="1" t="s">
         <v>28</v>
       </c>
@@ -13449,12 +13440,12 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
-      <c r="K129" s="6"/>
+      <c r="K129" s="1"/>
       <c r="L129" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
       <c r="O129" s="1" t="s">
         <v>28</v>
       </c>
@@ -13489,12 +13480,12 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
-      <c r="K130" s="6"/>
+      <c r="K130" s="1"/>
       <c r="L130" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M130" s="6"/>
-      <c r="N130" s="6"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
       <c r="O130" s="1" t="s">
         <v>28</v>
       </c>
@@ -13529,12 +13520,12 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
-      <c r="K131" s="6"/>
+      <c r="K131" s="1"/>
       <c r="L131" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M131" s="6"/>
-      <c r="N131" s="6"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
       <c r="O131" s="1" t="s">
         <v>28</v>
       </c>
@@ -13558,7 +13549,7 @@
       <c r="C132" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D132" s="6"/>
+      <c r="D132" s="1"/>
       <c r="E132" s="2">
         <v>44197</v>
       </c>
@@ -13567,12 +13558,12 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
-      <c r="K132" s="6"/>
+      <c r="K132" s="1"/>
       <c r="L132" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M132" s="6"/>
-      <c r="N132" s="6"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
       <c r="O132" s="1" t="s">
         <v>28</v>
       </c>
@@ -13607,12 +13598,12 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
-      <c r="K133" s="6"/>
+      <c r="K133" s="1"/>
       <c r="L133" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M133" s="6"/>
-      <c r="N133" s="6"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
       <c r="O133" s="1" t="s">
         <v>28</v>
       </c>
@@ -13647,12 +13638,12 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
-      <c r="K134" s="6"/>
+      <c r="K134" s="1"/>
       <c r="L134" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
       <c r="O134" s="1" t="s">
         <v>28</v>
       </c>
@@ -13687,12 +13678,12 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
-      <c r="K135" s="6"/>
+      <c r="K135" s="1"/>
       <c r="L135" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
       <c r="O135" s="1" t="s">
         <v>28</v>
       </c>
@@ -13727,12 +13718,12 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
-      <c r="K136" s="6"/>
+      <c r="K136" s="1"/>
       <c r="L136" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
       <c r="O136" s="1" t="s">
         <v>28</v>
       </c>
@@ -13756,7 +13747,7 @@
       <c r="C137" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D137" s="6"/>
+      <c r="D137" s="1"/>
       <c r="E137" s="2">
         <v>44197</v>
       </c>
@@ -13765,12 +13756,12 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
-      <c r="K137" s="6"/>
+      <c r="K137" s="1"/>
       <c r="L137" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M137" s="6"/>
-      <c r="N137" s="6"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
       <c r="O137" s="1" t="s">
         <v>28</v>
       </c>
@@ -13805,12 +13796,12 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="6"/>
+      <c r="K138" s="1"/>
       <c r="L138" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M138" s="6"/>
-      <c r="N138" s="6"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
       <c r="O138" s="1" t="s">
         <v>28</v>
       </c>
@@ -13845,12 +13836,12 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
-      <c r="K139" s="6"/>
+      <c r="K139" s="1"/>
       <c r="L139" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M139" s="6"/>
-      <c r="N139" s="6"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
       <c r="O139" s="1" t="s">
         <v>28</v>
       </c>
@@ -13874,7 +13865,7 @@
       <c r="C140" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D140" s="6"/>
+      <c r="D140" s="1"/>
       <c r="E140" s="2">
         <v>44197</v>
       </c>
@@ -13883,12 +13874,12 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
-      <c r="K140" s="6"/>
+      <c r="K140" s="1"/>
       <c r="L140" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M140" s="6"/>
-      <c r="N140" s="6"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
       <c r="O140" s="1" t="s">
         <v>28</v>
       </c>
@@ -13923,12 +13914,12 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="6"/>
+      <c r="K141" s="1"/>
       <c r="L141" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M141" s="6"/>
-      <c r="N141" s="6"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
       <c r="O141" s="1" t="s">
         <v>28</v>
       </c>
@@ -13963,12 +13954,12 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="6"/>
+      <c r="K142" s="1"/>
       <c r="L142" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M142" s="6"/>
-      <c r="N142" s="6"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
       <c r="O142" s="1" t="s">
         <v>28</v>
       </c>
@@ -14003,12 +13994,12 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="6"/>
+      <c r="K143" s="1"/>
       <c r="L143" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M143" s="6"/>
-      <c r="N143" s="6"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
       <c r="O143" s="1" t="s">
         <v>28</v>
       </c>
@@ -14043,12 +14034,12 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
-      <c r="K144" s="6"/>
+      <c r="K144" s="1"/>
       <c r="L144" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M144" s="6"/>
-      <c r="N144" s="6"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
       <c r="O144" s="1" t="s">
         <v>28</v>
       </c>
@@ -14083,12 +14074,12 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
-      <c r="K145" s="6"/>
+      <c r="K145" s="1"/>
       <c r="L145" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M145" s="6"/>
-      <c r="N145" s="6"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
       <c r="O145" s="1" t="s">
         <v>28</v>
       </c>
@@ -14123,12 +14114,12 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
-      <c r="K146" s="6"/>
+      <c r="K146" s="1"/>
       <c r="L146" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M146" s="6"/>
-      <c r="N146" s="6"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
       <c r="O146" s="1" t="s">
         <v>28</v>
       </c>
@@ -14152,7 +14143,7 @@
       <c r="C147" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D147" s="6"/>
+      <c r="D147" s="1"/>
       <c r="E147" s="2">
         <v>44197</v>
       </c>
@@ -14161,12 +14152,12 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
-      <c r="K147" s="6"/>
+      <c r="K147" s="1"/>
       <c r="L147" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M147" s="6"/>
-      <c r="N147" s="6"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
       <c r="O147" s="1" t="s">
         <v>28</v>
       </c>
@@ -14201,12 +14192,12 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
-      <c r="K148" s="6"/>
+      <c r="K148" s="1"/>
       <c r="L148" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
       <c r="O148" s="1" t="s">
         <v>28</v>
       </c>
@@ -14241,12 +14232,12 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
-      <c r="K149" s="6"/>
+      <c r="K149" s="1"/>
       <c r="L149" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M149" s="6"/>
-      <c r="N149" s="6"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
       <c r="O149" s="1" t="s">
         <v>28</v>
       </c>
@@ -14281,12 +14272,12 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="6"/>
+      <c r="K150" s="1"/>
       <c r="L150" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M150" s="6"/>
-      <c r="N150" s="6"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
       <c r="O150" s="1" t="s">
         <v>28</v>
       </c>
@@ -14321,12 +14312,12 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
-      <c r="K151" s="6"/>
+      <c r="K151" s="1"/>
       <c r="L151" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M151" s="6"/>
-      <c r="N151" s="6"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
       <c r="O151" s="1" t="s">
         <v>28</v>
       </c>
@@ -14350,7 +14341,7 @@
       <c r="C152" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D152" s="6"/>
+      <c r="D152" s="1"/>
       <c r="E152" s="2">
         <v>44197</v>
       </c>
@@ -14359,12 +14350,12 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
-      <c r="K152" s="6"/>
+      <c r="K152" s="1"/>
       <c r="L152" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M152" s="6"/>
-      <c r="N152" s="6"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
       <c r="O152" s="1" t="s">
         <v>28</v>
       </c>
@@ -14399,12 +14390,12 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
-      <c r="K153" s="6"/>
+      <c r="K153" s="1"/>
       <c r="L153" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M153" s="6"/>
-      <c r="N153" s="6"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
       <c r="O153" s="1" t="s">
         <v>28</v>
       </c>
@@ -14428,7 +14419,7 @@
       <c r="C154" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D154" s="6"/>
+      <c r="D154" s="1"/>
       <c r="E154" s="2">
         <v>44197</v>
       </c>
@@ -14437,12 +14428,12 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
-      <c r="K154" s="6"/>
+      <c r="K154" s="1"/>
       <c r="L154" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M154" s="6"/>
-      <c r="N154" s="6"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
       <c r="O154" s="1" t="s">
         <v>28</v>
       </c>
@@ -14466,7 +14457,7 @@
       <c r="C155" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D155" s="6"/>
+      <c r="D155" s="1"/>
       <c r="E155" s="2">
         <v>44197</v>
       </c>
@@ -14475,12 +14466,12 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="6"/>
+      <c r="K155" s="1"/>
       <c r="L155" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M155" s="6"/>
-      <c r="N155" s="6"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
       <c r="O155" s="1" t="s">
         <v>28</v>
       </c>
@@ -14504,7 +14495,7 @@
       <c r="C156" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D156" s="6"/>
+      <c r="D156" s="1"/>
       <c r="E156" s="2">
         <v>44197</v>
       </c>
@@ -14513,12 +14504,12 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
-      <c r="K156" s="6"/>
+      <c r="K156" s="1"/>
       <c r="L156" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M156" s="6"/>
-      <c r="N156" s="6"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
       <c r="O156" s="1" t="s">
         <v>28</v>
       </c>
@@ -14542,7 +14533,7 @@
       <c r="C157" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D157" s="6"/>
+      <c r="D157" s="1"/>
       <c r="E157" s="2">
         <v>44197</v>
       </c>
@@ -14551,12 +14542,12 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
-      <c r="K157" s="6"/>
+      <c r="K157" s="1"/>
       <c r="L157" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M157" s="6"/>
-      <c r="N157" s="6"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
       <c r="O157" s="1" t="s">
         <v>28</v>
       </c>
@@ -14580,7 +14571,7 @@
       <c r="C158" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D158" s="6"/>
+      <c r="D158" s="1"/>
       <c r="E158" s="2">
         <v>44197</v>
       </c>
@@ -14589,12 +14580,12 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
-      <c r="K158" s="6"/>
+      <c r="K158" s="1"/>
       <c r="L158" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M158" s="6"/>
-      <c r="N158" s="6"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
       <c r="O158" s="1" t="s">
         <v>28</v>
       </c>
@@ -14629,12 +14620,12 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="6"/>
+      <c r="K159" s="1"/>
       <c r="L159" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M159" s="6"/>
-      <c r="N159" s="6"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
       <c r="O159" s="1" t="s">
         <v>28</v>
       </c>
@@ -14669,12 +14660,12 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
-      <c r="K160" s="6"/>
+      <c r="K160" s="1"/>
       <c r="L160" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M160" s="6"/>
-      <c r="N160" s="6"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
       <c r="O160" s="1" t="s">
         <v>28</v>
       </c>
@@ -14709,12 +14700,12 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
-      <c r="K161" s="6"/>
+      <c r="K161" s="1"/>
       <c r="L161" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M161" s="6"/>
-      <c r="N161" s="6"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
       <c r="O161" s="1" t="s">
         <v>28</v>
       </c>
@@ -14749,12 +14740,12 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
-      <c r="K162" s="6"/>
+      <c r="K162" s="1"/>
       <c r="L162" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M162" s="6"/>
-      <c r="N162" s="6"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
       <c r="O162" s="1" t="s">
         <v>28</v>
       </c>
@@ -14789,12 +14780,12 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
-      <c r="K163" s="6"/>
+      <c r="K163" s="1"/>
       <c r="L163" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M163" s="6"/>
-      <c r="N163" s="6"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
       <c r="O163" s="1" t="s">
         <v>28</v>
       </c>
@@ -14829,12 +14820,12 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
-      <c r="K164" s="6"/>
+      <c r="K164" s="1"/>
       <c r="L164" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M164" s="6"/>
-      <c r="N164" s="6"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
       <c r="O164" s="1" t="s">
         <v>28</v>
       </c>
@@ -14869,12 +14860,12 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
-      <c r="K165" s="6"/>
+      <c r="K165" s="1"/>
       <c r="L165" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M165" s="6"/>
-      <c r="N165" s="6"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
       <c r="O165" s="1" t="s">
         <v>28</v>
       </c>
@@ -14898,7 +14889,7 @@
       <c r="C166" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="D166" s="6"/>
+      <c r="D166" s="1"/>
       <c r="E166" s="2">
         <v>44197</v>
       </c>
@@ -14907,12 +14898,12 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
-      <c r="K166" s="6"/>
+      <c r="K166" s="1"/>
       <c r="L166" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M166" s="6"/>
-      <c r="N166" s="6"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
       <c r="O166" s="1" t="s">
         <v>28</v>
       </c>
@@ -14936,7 +14927,7 @@
       <c r="C167" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D167" s="6"/>
+      <c r="D167" s="1"/>
       <c r="E167" s="2">
         <v>44197</v>
       </c>
@@ -14945,12 +14936,12 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
-      <c r="K167" s="6"/>
+      <c r="K167" s="1"/>
       <c r="L167" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M167" s="6"/>
-      <c r="N167" s="6"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
       <c r="O167" s="1" t="s">
         <v>28</v>
       </c>
@@ -14985,12 +14976,12 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
-      <c r="K168" s="6"/>
+      <c r="K168" s="1"/>
       <c r="L168" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M168" s="6"/>
-      <c r="N168" s="6"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
       <c r="O168" s="1" t="s">
         <v>28</v>
       </c>
@@ -15025,12 +15016,12 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="6"/>
+      <c r="K169" s="1"/>
       <c r="L169" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M169" s="6"/>
-      <c r="N169" s="6"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
       <c r="O169" s="1" t="s">
         <v>28</v>
       </c>
@@ -15065,12 +15056,12 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="6"/>
+      <c r="K170" s="1"/>
       <c r="L170" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M170" s="6"/>
-      <c r="N170" s="6"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
       <c r="O170" s="1" t="s">
         <v>28</v>
       </c>
@@ -15105,12 +15096,12 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
-      <c r="K171" s="6"/>
+      <c r="K171" s="1"/>
       <c r="L171" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M171" s="6"/>
-      <c r="N171" s="6"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
       <c r="O171" s="1" t="s">
         <v>28</v>
       </c>
@@ -15145,12 +15136,12 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
-      <c r="K172" s="6"/>
+      <c r="K172" s="1"/>
       <c r="L172" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M172" s="6"/>
-      <c r="N172" s="6"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
       <c r="O172" s="1" t="s">
         <v>28</v>
       </c>
@@ -15185,12 +15176,12 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
-      <c r="K173" s="6"/>
+      <c r="K173" s="1"/>
       <c r="L173" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M173" s="6"/>
-      <c r="N173" s="6"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
       <c r="O173" s="1" t="s">
         <v>28</v>
       </c>
@@ -15214,7 +15205,7 @@
       <c r="C174" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D174" s="6"/>
+      <c r="D174" s="1"/>
       <c r="E174" s="2">
         <v>44197</v>
       </c>
@@ -15223,12 +15214,12 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
-      <c r="K174" s="6"/>
+      <c r="K174" s="1"/>
       <c r="L174" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M174" s="6"/>
-      <c r="N174" s="6"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
       <c r="O174" s="1" t="s">
         <v>28</v>
       </c>
@@ -15263,12 +15254,12 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="6"/>
+      <c r="K175" s="1"/>
       <c r="L175" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M175" s="6"/>
-      <c r="N175" s="6"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
       <c r="O175" s="1" t="s">
         <v>28</v>
       </c>
@@ -15303,12 +15294,12 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
-      <c r="K176" s="6"/>
+      <c r="K176" s="1"/>
       <c r="L176" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M176" s="6"/>
-      <c r="N176" s="6"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
       <c r="O176" s="1" t="s">
         <v>28</v>
       </c>
@@ -15332,7 +15323,7 @@
       <c r="C177" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D177" s="6"/>
+      <c r="D177" s="1"/>
       <c r="E177" s="2">
         <v>44197</v>
       </c>
@@ -15341,12 +15332,12 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
-      <c r="K177" s="6"/>
+      <c r="K177" s="1"/>
       <c r="L177" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M177" s="6"/>
-      <c r="N177" s="6"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
       <c r="O177" s="1" t="s">
         <v>28</v>
       </c>
@@ -15381,12 +15372,12 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
-      <c r="K178" s="6"/>
+      <c r="K178" s="1"/>
       <c r="L178" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M178" s="6"/>
-      <c r="N178" s="6"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
       <c r="O178" s="1" t="s">
         <v>28</v>
       </c>
@@ -15421,12 +15412,12 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
-      <c r="K179" s="6"/>
+      <c r="K179" s="1"/>
       <c r="L179" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M179" s="6"/>
-      <c r="N179" s="6"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
       <c r="O179" s="1" t="s">
         <v>28</v>
       </c>
@@ -15461,12 +15452,12 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
-      <c r="K180" s="6"/>
+      <c r="K180" s="1"/>
       <c r="L180" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M180" s="6"/>
-      <c r="N180" s="6"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
       <c r="O180" s="1" t="s">
         <v>28</v>
       </c>
@@ -15490,7 +15481,7 @@
       <c r="C181" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D181" s="6"/>
+      <c r="D181" s="1"/>
       <c r="E181" s="2">
         <v>44197</v>
       </c>
@@ -15499,12 +15490,12 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
-      <c r="K181" s="6"/>
+      <c r="K181" s="1"/>
       <c r="L181" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="M181" s="6"/>
-      <c r="N181" s="6"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
       <c r="O181" s="1" t="s">
         <v>28</v>
       </c>
@@ -15539,12 +15530,12 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
-      <c r="K182" s="6"/>
+      <c r="K182" s="1"/>
       <c r="L182" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M182" s="6"/>
-      <c r="N182" s="6"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
       <c r="O182" s="1" t="s">
         <v>28</v>
       </c>
@@ -15579,12 +15570,12 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="6"/>
+      <c r="K183" s="1"/>
       <c r="L183" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M183" s="6"/>
-      <c r="N183" s="6"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
       <c r="O183" s="1" t="s">
         <v>28</v>
       </c>
@@ -15619,12 +15610,12 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
-      <c r="K184" s="6"/>
+      <c r="K184" s="1"/>
       <c r="L184" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M184" s="6"/>
-      <c r="N184" s="6"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
       <c r="O184" s="1" t="s">
         <v>28</v>
       </c>
@@ -15659,12 +15650,12 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
-      <c r="K185" s="6"/>
+      <c r="K185" s="1"/>
       <c r="L185" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M185" s="6"/>
-      <c r="N185" s="6"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
       <c r="O185" s="1" t="s">
         <v>28</v>
       </c>
@@ -15699,12 +15690,12 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
-      <c r="K186" s="6"/>
+      <c r="K186" s="1"/>
       <c r="L186" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M186" s="6"/>
-      <c r="N186" s="6"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
       <c r="O186" s="1" t="s">
         <v>28</v>
       </c>
@@ -15739,12 +15730,12 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
-      <c r="K187" s="6"/>
+      <c r="K187" s="1"/>
       <c r="L187" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M187" s="6"/>
-      <c r="N187" s="6"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
       <c r="O187" s="1" t="s">
         <v>28</v>
       </c>
@@ -15779,12 +15770,12 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
-      <c r="K188" s="6"/>
+      <c r="K188" s="1"/>
       <c r="L188" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M188" s="6"/>
-      <c r="N188" s="6"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
       <c r="O188" s="1" t="s">
         <v>28</v>
       </c>
@@ -15819,12 +15810,12 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="6"/>
+      <c r="K189" s="1"/>
       <c r="L189" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M189" s="6"/>
-      <c r="N189" s="6"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
       <c r="O189" s="1" t="s">
         <v>28</v>
       </c>
@@ -15859,12 +15850,12 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="6"/>
+      <c r="K190" s="1"/>
       <c r="L190" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M190" s="6"/>
-      <c r="N190" s="6"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
       <c r="O190" s="1" t="s">
         <v>28</v>
       </c>
@@ -15899,12 +15890,12 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="6"/>
+      <c r="K191" s="1"/>
       <c r="L191" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M191" s="6"/>
-      <c r="N191" s="6"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
       <c r="O191" s="1" t="s">
         <v>28</v>
       </c>
@@ -15939,12 +15930,12 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="6"/>
+      <c r="K192" s="1"/>
       <c r="L192" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M192" s="6"/>
-      <c r="N192" s="6"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
       <c r="O192" s="1" t="s">
         <v>28</v>
       </c>
@@ -15979,12 +15970,12 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
-      <c r="K193" s="6"/>
+      <c r="K193" s="1"/>
       <c r="L193" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="M193" s="6"/>
-      <c r="N193" s="6"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
       <c r="O193" s="1" t="s">
         <v>28</v>
       </c>
@@ -16019,12 +16010,12 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
-      <c r="K194" s="6"/>
+      <c r="K194" s="1"/>
       <c r="L194" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M194" s="6"/>
-      <c r="N194" s="6"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
       <c r="O194" s="1" t="s">
         <v>28</v>
       </c>
@@ -16059,12 +16050,12 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
-      <c r="K195" s="6"/>
+      <c r="K195" s="1"/>
       <c r="L195" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M195" s="6"/>
-      <c r="N195" s="6"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
       <c r="O195" s="1" t="s">
         <v>28</v>
       </c>
@@ -16099,12 +16090,12 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
-      <c r="K196" s="6"/>
+      <c r="K196" s="1"/>
       <c r="L196" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M196" s="6"/>
-      <c r="N196" s="6"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
       <c r="O196" s="1" t="s">
         <v>28</v>
       </c>
@@ -16139,12 +16130,12 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
-      <c r="K197" s="6"/>
+      <c r="K197" s="1"/>
       <c r="L197" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M197" s="6"/>
-      <c r="N197" s="6"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
       <c r="O197" s="1" t="s">
         <v>28</v>
       </c>
@@ -16179,12 +16170,12 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
-      <c r="K198" s="6"/>
+      <c r="K198" s="1"/>
       <c r="L198" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M198" s="6"/>
-      <c r="N198" s="6"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
       <c r="O198" s="1" t="s">
         <v>28</v>
       </c>
@@ -16219,12 +16210,12 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
-      <c r="K199" s="6"/>
+      <c r="K199" s="1"/>
       <c r="L199" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M199" s="6"/>
-      <c r="N199" s="6"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
       <c r="O199" s="1" t="s">
         <v>28</v>
       </c>
@@ -16259,12 +16250,12 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
-      <c r="K200" s="6"/>
+      <c r="K200" s="1"/>
       <c r="L200" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M200" s="6"/>
-      <c r="N200" s="6"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
       <c r="O200" s="1" t="s">
         <v>28</v>
       </c>
@@ -16299,12 +16290,12 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
-      <c r="K201" s="6"/>
+      <c r="K201" s="1"/>
       <c r="L201" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M201" s="6"/>
-      <c r="N201" s="6"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
       <c r="O201" s="1" t="s">
         <v>28</v>
       </c>
@@ -16339,12 +16330,12 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
-      <c r="K202" s="6"/>
+      <c r="K202" s="1"/>
       <c r="L202" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M202" s="6"/>
-      <c r="N202" s="6"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
       <c r="O202" s="1" t="s">
         <v>28</v>
       </c>
@@ -16368,7 +16359,7 @@
       <c r="C203" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D203" s="6"/>
+      <c r="D203" s="1"/>
       <c r="E203" s="2">
         <v>44197</v>
       </c>
@@ -16377,12 +16368,12 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
-      <c r="K203" s="6"/>
+      <c r="K203" s="1"/>
       <c r="L203" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M203" s="6"/>
-      <c r="N203" s="6"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
       <c r="O203" s="1" t="s">
         <v>28</v>
       </c>
@@ -16417,12 +16408,12 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="6"/>
+      <c r="K204" s="1"/>
       <c r="L204" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M204" s="6"/>
-      <c r="N204" s="6"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
       <c r="O204" s="1" t="s">
         <v>28</v>
       </c>
@@ -16457,12 +16448,12 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
-      <c r="K205" s="6"/>
+      <c r="K205" s="1"/>
       <c r="L205" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M205" s="6"/>
-      <c r="N205" s="6"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
       <c r="O205" s="1" t="s">
         <v>28</v>
       </c>
@@ -16497,12 +16488,12 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
-      <c r="K206" s="6"/>
+      <c r="K206" s="1"/>
       <c r="L206" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M206" s="6"/>
-      <c r="N206" s="6"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
       <c r="O206" s="1" t="s">
         <v>28</v>
       </c>
@@ -16537,12 +16528,12 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
-      <c r="K207" s="6"/>
+      <c r="K207" s="1"/>
       <c r="L207" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M207" s="6"/>
-      <c r="N207" s="6"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
       <c r="O207" s="1" t="s">
         <v>28</v>
       </c>
@@ -16566,7 +16557,7 @@
       <c r="C208" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D208" s="6"/>
+      <c r="D208" s="1"/>
       <c r="E208" s="2">
         <v>44197</v>
       </c>
@@ -16575,12 +16566,12 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
-      <c r="K208" s="6"/>
+      <c r="K208" s="1"/>
       <c r="L208" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M208" s="6"/>
-      <c r="N208" s="6"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
       <c r="O208" s="1" t="s">
         <v>28</v>
       </c>
@@ -16615,12 +16606,12 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3"/>
-      <c r="K209" s="6"/>
+      <c r="K209" s="1"/>
       <c r="L209" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M209" s="6"/>
-      <c r="N209" s="6"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
       <c r="O209" s="1" t="s">
         <v>28</v>
       </c>
@@ -16655,12 +16646,12 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="6"/>
+      <c r="K210" s="1"/>
       <c r="L210" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M210" s="6"/>
-      <c r="N210" s="6"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
       <c r="O210" s="1" t="s">
         <v>28</v>
       </c>
@@ -16695,12 +16686,12 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3"/>
-      <c r="K211" s="6"/>
+      <c r="K211" s="1"/>
       <c r="L211" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M211" s="6"/>
-      <c r="N211" s="6"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
       <c r="O211" s="1" t="s">
         <v>28</v>
       </c>
@@ -16735,12 +16726,12 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
-      <c r="K212" s="6"/>
+      <c r="K212" s="1"/>
       <c r="L212" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M212" s="6"/>
-      <c r="N212" s="6"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
       <c r="O212" s="1" t="s">
         <v>28</v>
       </c>
@@ -16775,12 +16766,12 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="6"/>
+      <c r="K213" s="1"/>
       <c r="L213" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M213" s="6"/>
-      <c r="N213" s="6"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
       <c r="O213" s="1" t="s">
         <v>28</v>
       </c>
@@ -16815,12 +16806,12 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
-      <c r="K214" s="6"/>
+      <c r="K214" s="1"/>
       <c r="L214" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M214" s="6"/>
-      <c r="N214" s="6"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
       <c r="O214" s="1" t="s">
         <v>28</v>
       </c>
@@ -16855,12 +16846,12 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
-      <c r="K215" s="6"/>
+      <c r="K215" s="1"/>
       <c r="L215" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M215" s="6"/>
-      <c r="N215" s="6"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
       <c r="O215" s="1" t="s">
         <v>28</v>
       </c>
@@ -16895,12 +16886,12 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
-      <c r="K216" s="6"/>
+      <c r="K216" s="1"/>
       <c r="L216" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M216" s="6"/>
-      <c r="N216" s="6"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
       <c r="O216" s="1" t="s">
         <v>28</v>
       </c>
@@ -16935,12 +16926,12 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
-      <c r="K217" s="6"/>
+      <c r="K217" s="1"/>
       <c r="L217" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M217" s="6"/>
-      <c r="N217" s="6"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
       <c r="O217" s="1" t="s">
         <v>28</v>
       </c>
@@ -16964,7 +16955,7 @@
       <c r="C218" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D218" s="6"/>
+      <c r="D218" s="1"/>
       <c r="E218" s="2">
         <v>44197</v>
       </c>
@@ -16973,12 +16964,12 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
-      <c r="K218" s="6"/>
+      <c r="K218" s="1"/>
       <c r="L218" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M218" s="6"/>
-      <c r="N218" s="6"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
       <c r="O218" s="1" t="s">
         <v>28</v>
       </c>
@@ -17002,7 +16993,7 @@
       <c r="C219" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D219" s="6"/>
+      <c r="D219" s="1"/>
       <c r="E219" s="2">
         <v>44197</v>
       </c>
@@ -17011,12 +17002,12 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
-      <c r="K219" s="6"/>
+      <c r="K219" s="1"/>
       <c r="L219" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M219" s="6"/>
-      <c r="N219" s="6"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
       <c r="O219" s="1" t="s">
         <v>28</v>
       </c>
@@ -17051,12 +17042,12 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
-      <c r="K220" s="6"/>
+      <c r="K220" s="1"/>
       <c r="L220" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M220" s="6"/>
-      <c r="N220" s="6"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
       <c r="O220" s="1" t="s">
         <v>28</v>
       </c>
@@ -17091,12 +17082,12 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
-      <c r="K221" s="6"/>
+      <c r="K221" s="1"/>
       <c r="L221" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M221" s="6"/>
-      <c r="N221" s="6"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
       <c r="O221" s="1" t="s">
         <v>28</v>
       </c>
@@ -17131,12 +17122,12 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
-      <c r="K222" s="6"/>
+      <c r="K222" s="1"/>
       <c r="L222" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M222" s="6"/>
-      <c r="N222" s="6"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
       <c r="O222" s="1" t="s">
         <v>28</v>
       </c>
@@ -17171,12 +17162,12 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="6"/>
+      <c r="K223" s="1"/>
       <c r="L223" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M223" s="6"/>
-      <c r="N223" s="6"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
       <c r="O223" s="1" t="s">
         <v>28</v>
       </c>
@@ -17211,12 +17202,12 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
-      <c r="K224" s="6"/>
+      <c r="K224" s="1"/>
       <c r="L224" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M224" s="6"/>
-      <c r="N224" s="6"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
       <c r="O224" s="1" t="s">
         <v>28</v>
       </c>
@@ -17240,7 +17231,7 @@
       <c r="C225" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D225" s="6"/>
+      <c r="D225" s="1"/>
       <c r="E225" s="2">
         <v>44197</v>
       </c>
@@ -17249,12 +17240,12 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
-      <c r="K225" s="6"/>
+      <c r="K225" s="1"/>
       <c r="L225" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M225" s="6"/>
-      <c r="N225" s="6"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
       <c r="O225" s="1" t="s">
         <v>28</v>
       </c>
@@ -17289,12 +17280,12 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
-      <c r="K226" s="6"/>
+      <c r="K226" s="1"/>
       <c r="L226" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M226" s="6"/>
-      <c r="N226" s="6"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
       <c r="O226" s="1" t="s">
         <v>28</v>
       </c>
@@ -17329,12 +17320,12 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="6"/>
+      <c r="K227" s="1"/>
       <c r="L227" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M227" s="6"/>
-      <c r="N227" s="6"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
       <c r="O227" s="1" t="s">
         <v>28</v>
       </c>
@@ -17369,12 +17360,12 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
-      <c r="K228" s="6"/>
+      <c r="K228" s="1"/>
       <c r="L228" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="M228" s="6"/>
-      <c r="N228" s="6"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
       <c r="O228" s="1" t="s">
         <v>28</v>
       </c>
@@ -17398,7 +17389,7 @@
       <c r="C229" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D229" s="6"/>
+      <c r="D229" s="1"/>
       <c r="E229" s="2">
         <v>44197</v>
       </c>
@@ -17407,12 +17398,12 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3"/>
-      <c r="K229" s="6"/>
+      <c r="K229" s="1"/>
       <c r="L229" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="M229" s="6"/>
-      <c r="N229" s="6"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
       <c r="O229" s="1" t="s">
         <v>28</v>
       </c>
@@ -17447,12 +17438,12 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
-      <c r="K230" s="6"/>
+      <c r="K230" s="1"/>
       <c r="L230" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M230" s="6"/>
-      <c r="N230" s="6"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
       <c r="O230" s="1" t="s">
         <v>28</v>
       </c>
@@ -17487,12 +17478,12 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="3"/>
-      <c r="K231" s="6"/>
+      <c r="K231" s="1"/>
       <c r="L231" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M231" s="6"/>
-      <c r="N231" s="6"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
       <c r="O231" s="1" t="s">
         <v>28</v>
       </c>
@@ -17527,12 +17518,12 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
-      <c r="K232" s="6"/>
+      <c r="K232" s="1"/>
       <c r="L232" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M232" s="6"/>
-      <c r="N232" s="6"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
       <c r="O232" s="1" t="s">
         <v>28</v>
       </c>
@@ -17567,12 +17558,12 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3"/>
-      <c r="K233" s="6"/>
+      <c r="K233" s="1"/>
       <c r="L233" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M233" s="6"/>
-      <c r="N233" s="6"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
       <c r="O233" s="1" t="s">
         <v>28</v>
       </c>
@@ -17607,12 +17598,12 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
-      <c r="K234" s="6"/>
+      <c r="K234" s="1"/>
       <c r="L234" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M234" s="6"/>
-      <c r="N234" s="6"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
       <c r="O234" s="1" t="s">
         <v>28</v>
       </c>
@@ -17647,12 +17638,12 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
-      <c r="K235" s="6"/>
+      <c r="K235" s="1"/>
       <c r="L235" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M235" s="6"/>
-      <c r="N235" s="6"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
       <c r="O235" s="1" t="s">
         <v>28</v>
       </c>
@@ -17687,12 +17678,12 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
-      <c r="K236" s="6"/>
+      <c r="K236" s="1"/>
       <c r="L236" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M236" s="6"/>
-      <c r="N236" s="6"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
       <c r="O236" s="1" t="s">
         <v>28</v>
       </c>
@@ -17727,12 +17718,12 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3"/>
-      <c r="K237" s="6"/>
+      <c r="K237" s="1"/>
       <c r="L237" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M237" s="6"/>
-      <c r="N237" s="6"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
       <c r="O237" s="1" t="s">
         <v>28</v>
       </c>
@@ -17767,12 +17758,12 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
-      <c r="K238" s="6"/>
+      <c r="K238" s="1"/>
       <c r="L238" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M238" s="6"/>
-      <c r="N238" s="6"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
       <c r="O238" s="1" t="s">
         <v>28</v>
       </c>
@@ -17807,12 +17798,12 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3"/>
-      <c r="K239" s="6"/>
+      <c r="K239" s="1"/>
       <c r="L239" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M239" s="6"/>
-      <c r="N239" s="6"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
       <c r="O239" s="1" t="s">
         <v>28</v>
       </c>
@@ -17836,7 +17827,7 @@
       <c r="C240" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D240" s="6"/>
+      <c r="D240" s="1"/>
       <c r="E240" s="2">
         <v>44197</v>
       </c>
@@ -17845,12 +17836,12 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3"/>
-      <c r="K240" s="6"/>
+      <c r="K240" s="1"/>
       <c r="L240" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M240" s="6"/>
-      <c r="N240" s="6"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
       <c r="O240" s="1" t="s">
         <v>28</v>
       </c>
@@ -17885,12 +17876,12 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="3"/>
-      <c r="K241" s="6"/>
+      <c r="K241" s="1"/>
       <c r="L241" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M241" s="6"/>
-      <c r="N241" s="6"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
       <c r="O241" s="1" t="s">
         <v>28</v>
       </c>
@@ -17914,7 +17905,7 @@
       <c r="C242" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D242" s="6"/>
+      <c r="D242" s="1"/>
       <c r="E242" s="2">
         <v>44197</v>
       </c>
@@ -17923,12 +17914,12 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="6"/>
+      <c r="K242" s="1"/>
       <c r="L242" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M242" s="6"/>
-      <c r="N242" s="6"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
       <c r="O242" s="1" t="s">
         <v>28</v>
       </c>
@@ -17952,7 +17943,7 @@
       <c r="C243" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D243" s="6"/>
+      <c r="D243" s="1"/>
       <c r="E243" s="2">
         <v>44197</v>
       </c>
@@ -17961,12 +17952,12 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="6"/>
+      <c r="K243" s="1"/>
       <c r="L243" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M243" s="6"/>
-      <c r="N243" s="6"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
       <c r="O243" s="1" t="s">
         <v>28</v>
       </c>
@@ -18001,12 +17992,12 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3"/>
-      <c r="K244" s="6"/>
+      <c r="K244" s="1"/>
       <c r="L244" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M244" s="6"/>
-      <c r="N244" s="6"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
       <c r="O244" s="1" t="s">
         <v>28</v>
       </c>
@@ -18041,12 +18032,12 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="3"/>
-      <c r="K245" s="6"/>
+      <c r="K245" s="1"/>
       <c r="L245" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M245" s="6"/>
-      <c r="N245" s="6"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
       <c r="O245" s="1" t="s">
         <v>28</v>
       </c>
@@ -18235,12 +18226,12 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="3"/>
-      <c r="K249" s="6"/>
+      <c r="K249" s="1"/>
       <c r="L249" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M249" s="6"/>
-      <c r="N249" s="6"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
       <c r="O249" s="1" t="s">
         <v>28</v>
       </c>
@@ -18275,12 +18266,12 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="6"/>
+      <c r="K250" s="1"/>
       <c r="L250" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M250" s="6"/>
-      <c r="N250" s="6"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
       <c r="O250" s="1" t="s">
         <v>28</v>
       </c>
@@ -18315,12 +18306,12 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
-      <c r="K251" s="6"/>
+      <c r="K251" s="1"/>
       <c r="L251" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M251" s="6"/>
-      <c r="N251" s="6"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
       <c r="O251" s="1" t="s">
         <v>28</v>
       </c>
@@ -18355,12 +18346,12 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
-      <c r="K252" s="6"/>
+      <c r="K252" s="1"/>
       <c r="L252" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M252" s="6"/>
-      <c r="N252" s="6"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
       <c r="O252" s="1" t="s">
         <v>28</v>
       </c>
@@ -18395,12 +18386,12 @@
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3"/>
-      <c r="K253" s="6"/>
+      <c r="K253" s="1"/>
       <c r="L253" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M253" s="6"/>
-      <c r="N253" s="6"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
       <c r="O253" s="1" t="s">
         <v>28</v>
       </c>
@@ -18424,7 +18415,7 @@
       <c r="C254" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D254" s="6"/>
+      <c r="D254" s="1"/>
       <c r="E254" s="2">
         <v>44197</v>
       </c>
@@ -18433,12 +18424,12 @@
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
       <c r="J254" s="3"/>
-      <c r="K254" s="6"/>
+      <c r="K254" s="1"/>
       <c r="L254" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M254" s="6"/>
-      <c r="N254" s="6"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
       <c r="O254" s="1" t="s">
         <v>28</v>
       </c>
@@ -18462,7 +18453,7 @@
       <c r="C255" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D255" s="6"/>
+      <c r="D255" s="1"/>
       <c r="E255" s="2">
         <v>44197</v>
       </c>
@@ -18471,12 +18462,12 @@
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3"/>
-      <c r="K255" s="6"/>
+      <c r="K255" s="1"/>
       <c r="L255" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M255" s="6"/>
-      <c r="N255" s="6"/>
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
       <c r="O255" s="1" t="s">
         <v>28</v>
       </c>
@@ -19019,7 +19010,7 @@
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
       <c r="J266" s="3"/>
-      <c r="K266" s="6"/>
+      <c r="K266" s="1"/>
       <c r="L266" s="5" t="s">
         <v>36</v>
       </c>
@@ -19200,7 +19191,7 @@
       <c r="C270" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D270" s="6"/>
+      <c r="D270" s="1"/>
       <c r="E270" s="2">
         <v>44197</v>
       </c>
@@ -19209,12 +19200,12 @@
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
       <c r="J270" s="3"/>
-      <c r="K270" s="6"/>
+      <c r="K270" s="1"/>
       <c r="L270" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M270" s="6"/>
-      <c r="N270" s="6"/>
+      <c r="M270" s="1"/>
+      <c r="N270" s="1"/>
       <c r="O270" s="1" t="s">
         <v>28</v>
       </c>
@@ -19238,7 +19229,7 @@
       <c r="C271" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D271" s="6"/>
+      <c r="D271" s="1"/>
       <c r="E271" s="2">
         <v>44197</v>
       </c>
@@ -19247,12 +19238,12 @@
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
       <c r="J271" s="3"/>
-      <c r="K271" s="6"/>
+      <c r="K271" s="1"/>
       <c r="L271" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M271" s="6"/>
-      <c r="N271" s="6"/>
+      <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
       <c r="O271" s="1" t="s">
         <v>28</v>
       </c>
@@ -19276,7 +19267,7 @@
       <c r="C272" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D272" s="6"/>
+      <c r="D272" s="1"/>
       <c r="E272" s="2">
         <v>44197</v>
       </c>
@@ -19285,12 +19276,12 @@
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
       <c r="J272" s="3"/>
-      <c r="K272" s="6"/>
+      <c r="K272" s="1"/>
       <c r="L272" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M272" s="6"/>
-      <c r="N272" s="6"/>
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
       <c r="O272" s="1" t="s">
         <v>28</v>
       </c>
@@ -19325,12 +19316,12 @@
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="6"/>
+      <c r="K273" s="1"/>
       <c r="L273" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M273" s="6"/>
-      <c r="N273" s="6"/>
+      <c r="M273" s="1"/>
+      <c r="N273" s="1"/>
       <c r="O273" s="1" t="s">
         <v>28</v>
       </c>
@@ -19365,12 +19356,12 @@
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="6"/>
+      <c r="K274" s="1"/>
       <c r="L274" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M274" s="6"/>
-      <c r="N274" s="6"/>
+      <c r="M274" s="1"/>
+      <c r="N274" s="1"/>
       <c r="O274" s="1" t="s">
         <v>28</v>
       </c>
@@ -19405,12 +19396,12 @@
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
-      <c r="K275" s="6"/>
+      <c r="K275" s="1"/>
       <c r="L275" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M275" s="6"/>
-      <c r="N275" s="6"/>
+      <c r="M275" s="1"/>
+      <c r="N275" s="1"/>
       <c r="O275" s="1" t="s">
         <v>28</v>
       </c>
@@ -19445,12 +19436,12 @@
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
-      <c r="K276" s="6"/>
+      <c r="K276" s="1"/>
       <c r="L276" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M276" s="6"/>
-      <c r="N276" s="6"/>
+      <c r="M276" s="1"/>
+      <c r="N276" s="1"/>
       <c r="O276" s="1" t="s">
         <v>28</v>
       </c>
@@ -19491,7 +19482,7 @@
       <c r="J277" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K277" s="6"/>
+      <c r="K277" s="1"/>
       <c r="L277" s="1" t="s">
         <v>148</v>
       </c>
@@ -19541,7 +19532,7 @@
       <c r="J278" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K278" s="6"/>
+      <c r="K278" s="1"/>
       <c r="L278" s="1" t="s">
         <v>148</v>
       </c>
@@ -19591,7 +19582,7 @@
       <c r="J279" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K279" s="6"/>
+      <c r="K279" s="1"/>
       <c r="L279" s="1" t="s">
         <v>318</v>
       </c>
@@ -19793,7 +19784,7 @@
       <c r="J283" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K283" s="6"/>
+      <c r="K283" s="1"/>
       <c r="L283" s="1" t="s">
         <v>318</v>
       </c>
@@ -19891,7 +19882,7 @@
       <c r="J285" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K285" s="6"/>
+      <c r="K285" s="1"/>
       <c r="L285" s="1" t="s">
         <v>148</v>
       </c>
@@ -20093,14 +20084,14 @@
       <c r="J289" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K289" s="6"/>
+      <c r="K289" s="1"/>
       <c r="L289" s="1" t="s">
         <v>148</v>
       </c>
       <c r="M289" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="N289" s="6"/>
+      <c r="N289" s="1"/>
       <c r="O289" s="1" t="s">
         <v>28</v>
       </c>
@@ -20141,7 +20132,7 @@
       <c r="J290" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K290" s="6"/>
+      <c r="K290" s="1"/>
       <c r="L290" s="1" t="s">
         <v>148</v>
       </c>
@@ -20191,7 +20182,7 @@
       <c r="J291" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K291" s="6"/>
+      <c r="K291" s="1"/>
       <c r="L291" s="1" t="s">
         <v>604</v>
       </c>
@@ -20743,14 +20734,14 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
-      <c r="K302" s="6"/>
+      <c r="K302" s="1"/>
       <c r="L302" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M302" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N302" s="6"/>
+      <c r="N302" s="1"/>
       <c r="O302" s="1" t="s">
         <v>28</v>
       </c>
@@ -20824,7 +20815,7 @@
       <c r="C304" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D304" s="6"/>
+      <c r="D304" s="1"/>
       <c r="E304" s="2">
         <v>44197</v>
       </c>
@@ -20833,7 +20824,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
-      <c r="K304" s="6"/>
+      <c r="K304" s="1"/>
       <c r="L304" s="4" t="s">
         <v>36</v>
       </c>
@@ -20931,7 +20922,7 @@
       <c r="J306" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K306" s="6"/>
+      <c r="K306" s="1"/>
       <c r="L306" s="1" t="s">
         <v>148</v>
       </c>
@@ -20981,7 +20972,7 @@
       <c r="J307" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K307" s="6"/>
+      <c r="K307" s="1"/>
       <c r="L307" s="1" t="s">
         <v>148</v>
       </c>
@@ -21031,7 +21022,7 @@
       <c r="J308" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K308" s="6"/>
+      <c r="K308" s="1"/>
       <c r="L308" s="1" t="s">
         <v>318</v>
       </c>
@@ -21081,7 +21072,7 @@
       <c r="J309" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K309" s="6"/>
+      <c r="K309" s="1"/>
       <c r="L309" s="1" t="s">
         <v>604</v>
       </c>
@@ -21333,7 +21324,7 @@
       <c r="J314" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K314" s="6"/>
+      <c r="K314" s="1"/>
       <c r="L314" s="1" t="s">
         <v>148</v>
       </c>
@@ -21414,7 +21405,7 @@
       <c r="C316" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D316" s="6"/>
+      <c r="D316" s="1"/>
       <c r="E316" s="2">
         <v>44197</v>
       </c>
@@ -21425,7 +21416,7 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
       <c r="J316" s="3"/>
-      <c r="K316" s="6"/>
+      <c r="K316" s="1"/>
       <c r="L316" s="4" t="s">
         <v>36</v>
       </c>
@@ -21469,7 +21460,7 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
-      <c r="K317" s="6"/>
+      <c r="K317" s="1"/>
       <c r="L317" s="4" t="s">
         <v>36</v>
       </c>
@@ -21519,7 +21510,7 @@
       <c r="J318" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K318" s="6"/>
+      <c r="K318" s="1"/>
       <c r="L318" s="1" t="s">
         <v>318</v>
       </c>
@@ -21615,7 +21606,7 @@
       <c r="J320" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K320" s="6"/>
+      <c r="K320" s="1"/>
       <c r="L320" s="1" t="s">
         <v>604</v>
       </c>
@@ -21811,7 +21802,7 @@
       <c r="J324" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K324" s="6"/>
+      <c r="K324" s="1"/>
       <c r="L324" s="1" t="s">
         <v>148</v>
       </c>
@@ -21861,7 +21852,7 @@
       <c r="J325" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K325" s="6"/>
+      <c r="K325" s="1"/>
       <c r="L325" s="1" t="s">
         <v>148</v>
       </c>
@@ -21963,7 +21954,7 @@
       <c r="J327" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K327" s="6"/>
+      <c r="K327" s="1"/>
       <c r="L327" s="1" t="s">
         <v>148</v>
       </c>
@@ -22013,7 +22004,7 @@
       <c r="J328" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K328" s="6"/>
+      <c r="K328" s="1"/>
       <c r="L328" s="1" t="s">
         <v>148</v>
       </c>
@@ -22063,7 +22054,7 @@
       <c r="J329" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K329" s="6"/>
+      <c r="K329" s="1"/>
       <c r="L329" s="1" t="s">
         <v>148</v>
       </c>
@@ -22165,7 +22156,7 @@
       <c r="J331" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K331" s="6"/>
+      <c r="K331" s="1"/>
       <c r="L331" s="1" t="s">
         <v>148</v>
       </c>
@@ -22215,7 +22206,7 @@
       <c r="J332" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K332" s="6"/>
+      <c r="K332" s="1"/>
       <c r="L332" s="1" t="s">
         <v>148</v>
       </c>
@@ -22265,7 +22256,7 @@
       <c r="J333" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K333" s="6"/>
+      <c r="K333" s="1"/>
       <c r="L333" s="1" t="s">
         <v>604</v>
       </c>
@@ -22315,7 +22306,7 @@
       <c r="J334" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K334" s="6"/>
+      <c r="K334" s="1"/>
       <c r="L334" s="1" t="s">
         <v>148</v>
       </c>
@@ -22421,7 +22412,7 @@
       <c r="J336" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K336" s="6"/>
+      <c r="K336" s="1"/>
       <c r="L336" s="1" t="s">
         <v>604</v>
       </c>
@@ -22471,7 +22462,7 @@
       <c r="J337" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K337" s="6"/>
+      <c r="K337" s="1"/>
       <c r="L337" s="1" t="s">
         <v>604</v>
       </c>
@@ -22521,7 +22512,7 @@
       <c r="J338" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K338" s="6"/>
+      <c r="K338" s="1"/>
       <c r="L338" s="1" t="s">
         <v>148</v>
       </c>
@@ -22619,7 +22610,7 @@
       <c r="J340" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K340" s="6"/>
+      <c r="K340" s="1"/>
       <c r="L340" s="1" t="s">
         <v>259</v>
       </c>
@@ -22669,7 +22660,7 @@
       <c r="J341" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K341" s="6"/>
+      <c r="K341" s="1"/>
       <c r="L341" s="1" t="s">
         <v>318</v>
       </c>
@@ -22719,7 +22710,7 @@
       <c r="J342" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K342" s="6"/>
+      <c r="K342" s="1"/>
       <c r="L342" s="1" t="s">
         <v>148</v>
       </c>
@@ -22823,7 +22814,7 @@
       <c r="J344" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K344" s="6"/>
+      <c r="K344" s="1"/>
       <c r="L344" s="1" t="s">
         <v>148</v>
       </c>
@@ -22929,7 +22920,7 @@
       <c r="J346" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K346" s="6"/>
+      <c r="K346" s="1"/>
       <c r="L346" s="1" t="s">
         <v>148</v>
       </c>
@@ -22979,7 +22970,7 @@
       <c r="J347" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K347" s="6"/>
+      <c r="K347" s="1"/>
       <c r="L347" s="1" t="s">
         <v>148</v>
       </c>
@@ -23029,7 +23020,7 @@
       <c r="J348" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K348" s="6"/>
+      <c r="K348" s="1"/>
       <c r="L348" s="1" t="s">
         <v>318</v>
       </c>
@@ -23079,7 +23070,7 @@
       <c r="J349" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K349" s="6"/>
+      <c r="K349" s="1"/>
       <c r="L349" s="1" t="s">
         <v>318</v>
       </c>
@@ -23181,7 +23172,7 @@
       <c r="J351" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K351" s="6"/>
+      <c r="K351" s="1"/>
       <c r="L351" s="1" t="s">
         <v>148</v>
       </c>
@@ -23231,7 +23222,7 @@
       <c r="J352" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K352" s="6"/>
+      <c r="K352" s="1"/>
       <c r="L352" s="1" t="s">
         <v>318</v>
       </c>
@@ -23281,7 +23272,7 @@
       <c r="J353" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K353" s="6"/>
+      <c r="K353" s="1"/>
       <c r="L353" s="1" t="s">
         <v>318</v>
       </c>
@@ -23383,7 +23374,7 @@
       <c r="J355" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K355" s="6"/>
+      <c r="K355" s="1"/>
       <c r="L355" s="1" t="s">
         <v>148</v>
       </c>
@@ -23433,7 +23424,7 @@
       <c r="J356" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K356" s="6"/>
+      <c r="K356" s="1"/>
       <c r="L356" s="1" t="s">
         <v>148</v>
       </c>
@@ -23483,7 +23474,7 @@
       <c r="J357" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K357" s="6"/>
+      <c r="K357" s="1"/>
       <c r="L357" s="1" t="s">
         <v>148</v>
       </c>
@@ -23533,7 +23524,7 @@
       <c r="J358" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K358" s="6"/>
+      <c r="K358" s="1"/>
       <c r="L358" s="1" t="s">
         <v>148</v>
       </c>
@@ -23583,7 +23574,7 @@
       <c r="J359" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K359" s="6"/>
+      <c r="K359" s="1"/>
       <c r="L359" s="1" t="s">
         <v>318</v>
       </c>
@@ -23633,7 +23624,7 @@
       <c r="J360" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K360" s="6"/>
+      <c r="K360" s="1"/>
       <c r="L360" s="1" t="s">
         <v>148</v>
       </c>
@@ -23683,7 +23674,7 @@
       <c r="J361" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K361" s="6"/>
+      <c r="K361" s="1"/>
       <c r="L361" s="1" t="s">
         <v>148</v>
       </c>
@@ -23733,7 +23724,7 @@
       <c r="J362" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K362" s="6"/>
+      <c r="K362" s="1"/>
       <c r="L362" s="1" t="s">
         <v>148</v>
       </c>
@@ -23783,7 +23774,7 @@
       <c r="J363" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K363" s="6"/>
+      <c r="K363" s="1"/>
       <c r="L363" s="1" t="s">
         <v>148</v>
       </c>
@@ -23833,7 +23824,7 @@
       <c r="J364" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K364" s="6"/>
+      <c r="K364" s="1"/>
       <c r="L364" s="1" t="s">
         <v>148</v>
       </c>
@@ -23883,7 +23874,7 @@
       <c r="J365" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K365" s="6"/>
+      <c r="K365" s="1"/>
       <c r="L365" s="1" t="s">
         <v>148</v>
       </c>
@@ -23933,7 +23924,7 @@
       <c r="J366" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K366" s="6"/>
+      <c r="K366" s="1"/>
       <c r="L366" s="1" t="s">
         <v>259</v>
       </c>
@@ -23983,7 +23974,7 @@
       <c r="J367" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K367" s="6"/>
+      <c r="K367" s="1"/>
       <c r="L367" s="1" t="s">
         <v>259</v>
       </c>
@@ -24085,7 +24076,7 @@
       <c r="J369" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K369" s="6"/>
+      <c r="K369" s="1"/>
       <c r="L369" s="1" t="s">
         <v>318</v>
       </c>
@@ -24135,7 +24126,7 @@
       <c r="J370" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K370" s="6"/>
+      <c r="K370" s="1"/>
       <c r="L370" s="1" t="s">
         <v>318</v>
       </c>
@@ -24283,7 +24274,7 @@
       <c r="J373" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K373" s="6"/>
+      <c r="K373" s="1"/>
       <c r="L373" s="1" t="s">
         <v>148</v>
       </c>
@@ -24333,7 +24324,7 @@
       <c r="J374" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K374" s="6"/>
+      <c r="K374" s="1"/>
       <c r="L374" s="1" t="s">
         <v>148</v>
       </c>
@@ -24383,7 +24374,7 @@
       <c r="J375" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K375" s="6"/>
+      <c r="K375" s="1"/>
       <c r="L375" s="1" t="s">
         <v>148</v>
       </c>
@@ -24468,7 +24459,7 @@
       <c r="C377" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D377" s="6"/>
+      <c r="D377" s="1"/>
       <c r="E377" s="2">
         <v>44306</v>
       </c>
@@ -24583,7 +24574,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
       <c r="J379" s="3"/>
-      <c r="K379" s="6"/>
+      <c r="K379" s="1"/>
       <c r="L379" s="4" t="s">
         <v>36</v>
       </c>
@@ -24627,7 +24618,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="J380" s="3"/>
-      <c r="K380" s="6"/>
+      <c r="K380" s="1"/>
       <c r="L380" s="4" t="s">
         <v>36</v>
       </c>
@@ -24783,11 +24774,11 @@
       <c r="J383" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K383" s="6"/>
+      <c r="K383" s="1"/>
       <c r="L383" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M383" s="6"/>
+      <c r="M383" s="1"/>
       <c r="N383" s="1" t="s">
         <v>415</v>
       </c>
@@ -24881,7 +24872,7 @@
       <c r="J385" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K385" s="6"/>
+      <c r="K385" s="1"/>
       <c r="L385" s="1" t="s">
         <v>148</v>
       </c>
@@ -24983,7 +24974,7 @@
       <c r="J387" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K387" s="6"/>
+      <c r="K387" s="1"/>
       <c r="L387" s="1" t="s">
         <v>318</v>
       </c>
@@ -25235,7 +25226,7 @@
       <c r="J392" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K392" s="6"/>
+      <c r="K392" s="1"/>
       <c r="L392" s="1" t="s">
         <v>148</v>
       </c>
@@ -25285,7 +25276,7 @@
       <c r="J393" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K393" s="6"/>
+      <c r="K393" s="1"/>
       <c r="L393" s="1" t="s">
         <v>148</v>
       </c>
@@ -25335,7 +25326,7 @@
       <c r="J394" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K394" s="6"/>
+      <c r="K394" s="1"/>
       <c r="L394" s="1" t="s">
         <v>148</v>
       </c>
@@ -25385,11 +25376,11 @@
       <c r="J395" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K395" s="6"/>
+      <c r="K395" s="1"/>
       <c r="L395" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M395" s="6"/>
+      <c r="M395" s="1"/>
       <c r="N395" s="1" t="s">
         <v>415</v>
       </c>
@@ -25433,7 +25424,7 @@
       <c r="J396" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K396" s="6"/>
+      <c r="K396" s="1"/>
       <c r="L396" s="1" t="s">
         <v>148</v>
       </c>
@@ -25483,7 +25474,7 @@
       <c r="J397" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="K397" s="6"/>
+      <c r="K397" s="1"/>
       <c r="L397" s="1" t="s">
         <v>148</v>
       </c>
@@ -25677,7 +25668,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
       <c r="J401" s="3"/>
-      <c r="K401" s="6"/>
+      <c r="K401" s="1"/>
       <c r="L401" s="4" t="s">
         <v>36</v>
       </c>
@@ -25775,7 +25766,7 @@
       <c r="J403" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K403" s="6"/>
+      <c r="K403" s="1"/>
       <c r="L403" s="1" t="s">
         <v>148</v>
       </c>
@@ -25825,7 +25816,7 @@
       <c r="J404" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K404" s="6"/>
+      <c r="K404" s="1"/>
       <c r="L404" s="1" t="s">
         <v>148</v>
       </c>
@@ -26085,7 +26076,7 @@
       <c r="J409" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K409" s="6"/>
+      <c r="K409" s="1"/>
       <c r="L409" s="1" t="s">
         <v>318</v>
       </c>
@@ -26135,7 +26126,7 @@
       <c r="J410" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K410" s="6"/>
+      <c r="K410" s="1"/>
       <c r="L410" s="1" t="s">
         <v>148</v>
       </c>
@@ -26237,7 +26228,7 @@
       <c r="J412" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K412" s="6"/>
+      <c r="K412" s="1"/>
       <c r="L412" s="1" t="s">
         <v>148</v>
       </c>
@@ -26287,7 +26278,7 @@
       <c r="J413" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K413" s="6"/>
+      <c r="K413" s="1"/>
       <c r="L413" s="1" t="s">
         <v>148</v>
       </c>
@@ -26333,7 +26324,7 @@
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
       <c r="J414" s="3"/>
-      <c r="K414" s="6"/>
+      <c r="K414" s="1"/>
       <c r="L414" s="1" t="s">
         <v>1176</v>
       </c>
@@ -26383,7 +26374,7 @@
       <c r="J415" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K415" s="6"/>
+      <c r="K415" s="1"/>
       <c r="L415" s="1" t="s">
         <v>148</v>
       </c>
@@ -26479,7 +26470,7 @@
       <c r="J417" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K417" s="6"/>
+      <c r="K417" s="1"/>
       <c r="L417" s="1" t="s">
         <v>148</v>
       </c>
@@ -26529,7 +26520,7 @@
       <c r="J418" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K418" s="6"/>
+      <c r="K418" s="1"/>
       <c r="L418" s="1" t="s">
         <v>148</v>
       </c>
@@ -26579,7 +26570,7 @@
       <c r="J419" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K419" s="6"/>
+      <c r="K419" s="1"/>
       <c r="L419" s="1" t="s">
         <v>148</v>
       </c>
@@ -26629,7 +26620,7 @@
       <c r="J420" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K420" s="6"/>
+      <c r="K420" s="1"/>
       <c r="L420" s="1" t="s">
         <v>148</v>
       </c>
@@ -26679,7 +26670,7 @@
       <c r="J421" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K421" s="6"/>
+      <c r="K421" s="1"/>
       <c r="L421" s="1" t="s">
         <v>148</v>
       </c>
@@ -26729,7 +26720,7 @@
       <c r="J422" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K422" s="6"/>
+      <c r="K422" s="1"/>
       <c r="L422" s="1" t="s">
         <v>148</v>
       </c>
@@ -26831,7 +26822,7 @@
       <c r="J424" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K424" s="6"/>
+      <c r="K424" s="1"/>
       <c r="L424" s="1" t="s">
         <v>148</v>
       </c>
@@ -26881,7 +26872,7 @@
       <c r="J425" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K425" s="6"/>
+      <c r="K425" s="1"/>
       <c r="L425" s="1" t="s">
         <v>148</v>
       </c>
@@ -26983,7 +26974,7 @@
       <c r="J427" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K427" s="6"/>
+      <c r="K427" s="1"/>
       <c r="L427" s="1" t="s">
         <v>318</v>
       </c>
@@ -27033,11 +27024,11 @@
       <c r="J428" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K428" s="6"/>
+      <c r="K428" s="1"/>
       <c r="L428" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M428" s="6"/>
+      <c r="M428" s="1"/>
       <c r="N428" s="1" t="s">
         <v>781</v>
       </c>
@@ -27081,11 +27072,11 @@
       <c r="J429" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K429" s="6"/>
+      <c r="K429" s="1"/>
       <c r="L429" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M429" s="6"/>
+      <c r="M429" s="1"/>
       <c r="N429" s="1" t="s">
         <v>415</v>
       </c>
@@ -27129,7 +27120,7 @@
       <c r="J430" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K430" s="6"/>
+      <c r="K430" s="1"/>
       <c r="L430" s="1" t="s">
         <v>148</v>
       </c>
@@ -27179,7 +27170,7 @@
       <c r="J431" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K431" s="6"/>
+      <c r="K431" s="1"/>
       <c r="L431" s="1" t="s">
         <v>148</v>
       </c>
@@ -27329,7 +27320,7 @@
       <c r="J434" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K434" s="6"/>
+      <c r="K434" s="1"/>
       <c r="L434" s="1" t="s">
         <v>318</v>
       </c>
@@ -27379,7 +27370,7 @@
       <c r="J435" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K435" s="6"/>
+      <c r="K435" s="1"/>
       <c r="L435" s="1" t="s">
         <v>318</v>
       </c>
@@ -27429,7 +27420,7 @@
       <c r="J436" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K436" s="6"/>
+      <c r="K436" s="1"/>
       <c r="L436" s="1" t="s">
         <v>148</v>
       </c>
@@ -27479,7 +27470,7 @@
       <c r="J437" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K437" s="6"/>
+      <c r="K437" s="1"/>
       <c r="L437" s="1" t="s">
         <v>148</v>
       </c>
@@ -27729,7 +27720,7 @@
       <c r="J442" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K442" s="6"/>
+      <c r="K442" s="1"/>
       <c r="L442" s="1" t="s">
         <v>148</v>
       </c>
@@ -27779,7 +27770,7 @@
       <c r="J443" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K443" s="6"/>
+      <c r="K443" s="1"/>
       <c r="L443" s="1" t="s">
         <v>148</v>
       </c>
@@ -27879,7 +27870,7 @@
       <c r="J445" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K445" s="6"/>
+      <c r="K445" s="1"/>
       <c r="L445" s="1" t="s">
         <v>148</v>
       </c>
@@ -28083,7 +28074,7 @@
       <c r="J449" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K449" s="6"/>
+      <c r="K449" s="1"/>
       <c r="L449" s="1" t="s">
         <v>148</v>
       </c>
@@ -28133,7 +28124,7 @@
       <c r="J450" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K450" s="6"/>
+      <c r="K450" s="1"/>
       <c r="L450" s="1" t="s">
         <v>318</v>
       </c>
@@ -28229,7 +28220,7 @@
       <c r="J452" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K452" s="6"/>
+      <c r="K452" s="1"/>
       <c r="L452" s="1" t="s">
         <v>148</v>
       </c>
@@ -28279,7 +28270,7 @@
       <c r="J453" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K453" s="6"/>
+      <c r="K453" s="1"/>
       <c r="L453" s="1" t="s">
         <v>148</v>
       </c>
@@ -28329,7 +28320,7 @@
       <c r="J454" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K454" s="6"/>
+      <c r="K454" s="1"/>
       <c r="L454" s="1" t="s">
         <v>25</v>
       </c>
@@ -28379,7 +28370,7 @@
       <c r="J455" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K455" s="6"/>
+      <c r="K455" s="1"/>
       <c r="L455" s="1" t="s">
         <v>148</v>
       </c>
@@ -28429,7 +28420,7 @@
       <c r="J456" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K456" s="6"/>
+      <c r="K456" s="1"/>
       <c r="L456" s="1" t="s">
         <v>148</v>
       </c>
@@ -28525,7 +28516,7 @@
       <c r="H458" s="3"/>
       <c r="I458" s="3"/>
       <c r="J458" s="3"/>
-      <c r="K458" s="6"/>
+      <c r="K458" s="1"/>
       <c r="L458" s="1" t="s">
         <v>25</v>
       </c>
@@ -28575,7 +28566,7 @@
       <c r="J459" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K459" s="6"/>
+      <c r="K459" s="1"/>
       <c r="L459" s="1" t="s">
         <v>148</v>
       </c>
@@ -28673,7 +28664,7 @@
       <c r="J461" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K461" s="6"/>
+      <c r="K461" s="1"/>
       <c r="L461" s="1" t="s">
         <v>148</v>
       </c>
@@ -28723,7 +28714,7 @@
       <c r="J462" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K462" s="6"/>
+      <c r="K462" s="1"/>
       <c r="L462" s="1" t="s">
         <v>148</v>
       </c>
@@ -28821,7 +28812,7 @@
       <c r="J464" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K464" s="6"/>
+      <c r="K464" s="1"/>
       <c r="L464" s="1" t="s">
         <v>148</v>
       </c>
@@ -28871,7 +28862,7 @@
       <c r="J465" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K465" s="6"/>
+      <c r="K465" s="1"/>
       <c r="L465" s="1" t="s">
         <v>148</v>
       </c>
@@ -28973,7 +28964,7 @@
       <c r="J467" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K467" s="6"/>
+      <c r="K467" s="1"/>
       <c r="L467" s="1" t="s">
         <v>259</v>
       </c>
@@ -29023,7 +29014,7 @@
       <c r="J468" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K468" s="6"/>
+      <c r="K468" s="1"/>
       <c r="L468" s="1" t="s">
         <v>148</v>
       </c>
@@ -29073,7 +29064,7 @@
       <c r="J469" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="K469" s="6"/>
+      <c r="K469" s="1"/>
       <c r="L469" s="1" t="s">
         <v>259</v>
       </c>
@@ -29123,7 +29114,7 @@
       <c r="J470" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K470" s="6"/>
+      <c r="K470" s="1"/>
       <c r="L470" s="1" t="s">
         <v>259</v>
       </c>
@@ -29225,7 +29216,7 @@
       <c r="J472" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K472" s="6"/>
+      <c r="K472" s="1"/>
       <c r="L472" s="1" t="s">
         <v>148</v>
       </c>
@@ -29275,7 +29266,7 @@
       <c r="J473" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K473" s="6"/>
+      <c r="K473" s="1"/>
       <c r="L473" s="1" t="s">
         <v>148</v>
       </c>
@@ -29423,7 +29414,7 @@
       <c r="J476" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K476" s="6"/>
+      <c r="K476" s="1"/>
       <c r="L476" s="1" t="s">
         <v>148</v>
       </c>
@@ -29473,7 +29464,7 @@
       <c r="J477" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K477" s="6"/>
+      <c r="K477" s="1"/>
       <c r="L477" s="1" t="s">
         <v>148</v>
       </c>
@@ -29523,7 +29514,7 @@
       <c r="J478" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K478" s="6"/>
+      <c r="K478" s="1"/>
       <c r="L478" s="1" t="s">
         <v>148</v>
       </c>
@@ -29573,7 +29564,7 @@
       <c r="J479" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K479" s="6"/>
+      <c r="K479" s="1"/>
       <c r="L479" s="1" t="s">
         <v>148</v>
       </c>
@@ -29623,7 +29614,7 @@
       <c r="J480" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K480" s="6"/>
+      <c r="K480" s="1"/>
       <c r="L480" s="1" t="s">
         <v>148</v>
       </c>
@@ -29669,11 +29660,11 @@
       <c r="H481" s="3"/>
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
-      <c r="K481" s="6"/>
+      <c r="K481" s="1"/>
       <c r="L481" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="M481" s="6"/>
+      <c r="M481" s="1"/>
       <c r="N481" s="1" t="s">
         <v>781</v>
       </c>
@@ -29717,7 +29708,7 @@
       <c r="J482" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K482" s="6"/>
+      <c r="K482" s="1"/>
       <c r="L482" s="1" t="s">
         <v>318</v>
       </c>
@@ -29767,7 +29758,7 @@
       <c r="J483" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K483" s="6"/>
+      <c r="K483" s="1"/>
       <c r="L483" s="1" t="s">
         <v>148</v>
       </c>
@@ -29817,7 +29808,7 @@
       <c r="J484" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K484" s="6"/>
+      <c r="K484" s="1"/>
       <c r="L484" s="1" t="s">
         <v>148</v>
       </c>
@@ -29867,7 +29858,7 @@
       <c r="J485" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K485" s="6"/>
+      <c r="K485" s="1"/>
       <c r="L485" s="1" t="s">
         <v>148</v>
       </c>
@@ -29915,7 +29906,7 @@
       <c r="H486" s="3"/>
       <c r="I486" s="3"/>
       <c r="J486" s="3"/>
-      <c r="K486" s="6"/>
+      <c r="K486" s="1"/>
       <c r="L486" s="1" t="s">
         <v>25</v>
       </c>
@@ -29965,7 +29956,7 @@
       <c r="J487" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K487" s="6"/>
+      <c r="K487" s="1"/>
       <c r="L487" s="1" t="s">
         <v>148</v>
       </c>
@@ -30015,7 +30006,7 @@
       <c r="J488" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K488" s="6"/>
+      <c r="K488" s="1"/>
       <c r="L488" s="1" t="s">
         <v>148</v>
       </c>
@@ -30065,7 +30056,7 @@
       <c r="J489" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K489" s="6"/>
+      <c r="K489" s="1"/>
       <c r="L489" s="1" t="s">
         <v>148</v>
       </c>
@@ -30357,7 +30348,7 @@
       <c r="J495" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K495" s="6"/>
+      <c r="K495" s="1"/>
       <c r="L495" s="1" t="s">
         <v>148</v>
       </c>
@@ -30407,7 +30398,7 @@
       <c r="J496" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K496" s="6"/>
+      <c r="K496" s="1"/>
       <c r="L496" s="1" t="s">
         <v>318</v>
       </c>
@@ -30507,7 +30498,7 @@
       <c r="J498" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K498" s="6"/>
+      <c r="K498" s="1"/>
       <c r="L498" s="1" t="s">
         <v>148</v>
       </c>
@@ -30557,7 +30548,7 @@
       <c r="J499" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K499" s="6"/>
+      <c r="K499" s="1"/>
       <c r="L499" s="1" t="s">
         <v>148</v>
       </c>
@@ -30607,11 +30598,11 @@
       <c r="J500" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K500" s="6"/>
+      <c r="K500" s="1"/>
       <c r="L500" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M500" s="6"/>
+      <c r="M500" s="1"/>
       <c r="N500" s="1" t="s">
         <v>781</v>
       </c>
@@ -30655,7 +30646,7 @@
       <c r="J501" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K501" s="6"/>
+      <c r="K501" s="1"/>
       <c r="L501" s="1" t="s">
         <v>148</v>
       </c>
@@ -30705,7 +30696,7 @@
       <c r="J502" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K502" s="6"/>
+      <c r="K502" s="1"/>
       <c r="L502" s="1" t="s">
         <v>148</v>
       </c>
@@ -30807,7 +30798,7 @@
       <c r="J504" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K504" s="6"/>
+      <c r="K504" s="1"/>
       <c r="L504" s="1" t="s">
         <v>148</v>
       </c>
@@ -30857,7 +30848,7 @@
       <c r="J505" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K505" s="6"/>
+      <c r="K505" s="1"/>
       <c r="L505" s="1" t="s">
         <v>148</v>
       </c>
@@ -30907,7 +30898,7 @@
       <c r="J506" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K506" s="6"/>
+      <c r="K506" s="1"/>
       <c r="L506" s="1" t="s">
         <v>148</v>
       </c>
@@ -30957,7 +30948,7 @@
       <c r="J507" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K507" s="6"/>
+      <c r="K507" s="1"/>
       <c r="L507" s="1" t="s">
         <v>148</v>
       </c>
@@ -31003,7 +30994,7 @@
       <c r="H508" s="3"/>
       <c r="I508" s="3"/>
       <c r="J508" s="3"/>
-      <c r="K508" s="6"/>
+      <c r="K508" s="1"/>
       <c r="L508" s="4" t="s">
         <v>36</v>
       </c>
@@ -31155,7 +31146,7 @@
       <c r="J511" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K511" s="6"/>
+      <c r="K511" s="1"/>
       <c r="L511" s="1" t="s">
         <v>148</v>
       </c>
@@ -31205,11 +31196,11 @@
       <c r="J512" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K512" s="6"/>
+      <c r="K512" s="1"/>
       <c r="L512" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M512" s="6"/>
+      <c r="M512" s="1"/>
       <c r="N512" s="1" t="s">
         <v>415</v>
       </c>
@@ -31305,7 +31296,7 @@
       <c r="J514" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="K514" s="6"/>
+      <c r="K514" s="1"/>
       <c r="L514" s="1" t="s">
         <v>148</v>
       </c>
@@ -31407,7 +31398,7 @@
       <c r="J516" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K516" s="6"/>
+      <c r="K516" s="1"/>
       <c r="L516" s="1" t="s">
         <v>148</v>
       </c>
@@ -31457,7 +31448,7 @@
       <c r="J517" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K517" s="6"/>
+      <c r="K517" s="1"/>
       <c r="L517" s="1" t="s">
         <v>148</v>
       </c>
@@ -31507,7 +31498,7 @@
       <c r="J518" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K518" s="6"/>
+      <c r="K518" s="1"/>
       <c r="L518" s="1" t="s">
         <v>148</v>
       </c>
@@ -31557,7 +31548,7 @@
       <c r="J519" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K519" s="6"/>
+      <c r="K519" s="1"/>
       <c r="L519" s="1" t="s">
         <v>318</v>
       </c>
@@ -31607,7 +31598,7 @@
       <c r="J520" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K520" s="6"/>
+      <c r="K520" s="1"/>
       <c r="L520" s="1" t="s">
         <v>148</v>
       </c>
@@ -31657,7 +31648,7 @@
       <c r="J521" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K521" s="6"/>
+      <c r="K521" s="1"/>
       <c r="L521" s="1" t="s">
         <v>148</v>
       </c>
@@ -31707,7 +31698,7 @@
       <c r="J522" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="K522" s="6"/>
+      <c r="K522" s="1"/>
       <c r="L522" s="1" t="s">
         <v>148</v>
       </c>
@@ -31807,7 +31798,7 @@
       <c r="J524" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K524" s="6"/>
+      <c r="K524" s="1"/>
       <c r="L524" s="1" t="s">
         <v>148</v>
       </c>
@@ -31857,7 +31848,7 @@
       <c r="J525" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K525" s="6"/>
+      <c r="K525" s="1"/>
       <c r="L525" s="1" t="s">
         <v>148</v>
       </c>
@@ -31907,7 +31898,7 @@
       <c r="J526" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K526" s="6"/>
+      <c r="K526" s="1"/>
       <c r="L526" s="1" t="s">
         <v>148</v>
       </c>
@@ -32059,7 +32050,7 @@
       <c r="J529" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K529" s="6"/>
+      <c r="K529" s="1"/>
       <c r="L529" s="1" t="s">
         <v>148</v>
       </c>
@@ -32109,7 +32100,7 @@
       <c r="J530" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K530" s="6"/>
+      <c r="K530" s="1"/>
       <c r="L530" s="1" t="s">
         <v>259</v>
       </c>
@@ -32159,7 +32150,7 @@
       <c r="J531" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K531" s="6"/>
+      <c r="K531" s="1"/>
       <c r="L531" s="1" t="s">
         <v>148</v>
       </c>
@@ -32209,7 +32200,7 @@
       <c r="J532" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K532" s="6"/>
+      <c r="K532" s="1"/>
       <c r="L532" s="1" t="s">
         <v>148</v>
       </c>
@@ -32259,7 +32250,7 @@
       <c r="J533" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K533" s="6"/>
+      <c r="K533" s="1"/>
       <c r="L533" s="1" t="s">
         <v>148</v>
       </c>
@@ -32409,7 +32400,7 @@
       <c r="J536" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K536" s="6"/>
+      <c r="K536" s="1"/>
       <c r="L536" s="1" t="s">
         <v>148</v>
       </c>
@@ -32511,7 +32502,7 @@
       <c r="J538" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K538" s="6"/>
+      <c r="K538" s="1"/>
       <c r="L538" s="1" t="s">
         <v>148</v>
       </c>
@@ -32709,7 +32700,7 @@
       <c r="H542" s="3"/>
       <c r="I542" s="3"/>
       <c r="J542" s="3"/>
-      <c r="K542" s="6"/>
+      <c r="K542" s="1"/>
       <c r="L542" s="1" t="s">
         <v>1176</v>
       </c>
@@ -32859,7 +32850,7 @@
       <c r="J545" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K545" s="6"/>
+      <c r="K545" s="1"/>
       <c r="L545" s="1" t="s">
         <v>148</v>
       </c>
@@ -32957,11 +32948,11 @@
       <c r="J547" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K547" s="6"/>
+      <c r="K547" s="1"/>
       <c r="L547" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M547" s="6"/>
+      <c r="M547" s="1"/>
       <c r="N547" s="1" t="s">
         <v>415</v>
       </c>
@@ -33105,11 +33096,11 @@
       <c r="J550" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K550" s="6"/>
+      <c r="K550" s="1"/>
       <c r="L550" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M550" s="6"/>
+      <c r="M550" s="1"/>
       <c r="N550" s="1" t="s">
         <v>415</v>
       </c>
@@ -33247,7 +33238,7 @@
       <c r="J553" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K553" s="6"/>
+      <c r="K553" s="1"/>
       <c r="L553" s="1" t="s">
         <v>148</v>
       </c>
@@ -33343,7 +33334,7 @@
       <c r="J555" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K555" s="6"/>
+      <c r="K555" s="1"/>
       <c r="L555" s="1" t="s">
         <v>148</v>
       </c>
@@ -33393,7 +33384,7 @@
       <c r="J556" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K556" s="6"/>
+      <c r="K556" s="1"/>
       <c r="L556" s="1" t="s">
         <v>148</v>
       </c>
@@ -33443,7 +33434,7 @@
       <c r="J557" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K557" s="6"/>
+      <c r="K557" s="1"/>
       <c r="L557" s="1" t="s">
         <v>148</v>
       </c>
@@ -33641,7 +33632,7 @@
       <c r="J561" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K561" s="6"/>
+      <c r="K561" s="1"/>
       <c r="L561" s="1" t="s">
         <v>148</v>
       </c>
@@ -33687,7 +33678,7 @@
       <c r="J562" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K562" s="6"/>
+      <c r="K562" s="1"/>
       <c r="L562" s="1" t="s">
         <v>25</v>
       </c>
@@ -33737,7 +33728,7 @@
       <c r="J563" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K563" s="6"/>
+      <c r="K563" s="1"/>
       <c r="L563" s="1" t="s">
         <v>259</v>
       </c>
@@ -33787,7 +33778,7 @@
       <c r="J564" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K564" s="6"/>
+      <c r="K564" s="1"/>
       <c r="L564" s="1" t="s">
         <v>148</v>
       </c>
@@ -33887,7 +33878,7 @@
       <c r="J566" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K566" s="6"/>
+      <c r="K566" s="1"/>
       <c r="L566" s="1" t="s">
         <v>148</v>
       </c>
@@ -34033,7 +34024,7 @@
       <c r="J569" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K569" s="6"/>
+      <c r="K569" s="1"/>
       <c r="L569" s="1" t="s">
         <v>148</v>
       </c>
@@ -34131,7 +34122,7 @@
       <c r="J571" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K571" s="6"/>
+      <c r="K571" s="1"/>
       <c r="L571" s="1" t="s">
         <v>318</v>
       </c>
@@ -34233,7 +34224,7 @@
       <c r="J573" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K573" s="6"/>
+      <c r="K573" s="1"/>
       <c r="L573" s="1" t="s">
         <v>148</v>
       </c>
@@ -34283,7 +34274,7 @@
       <c r="J574" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K574" s="6"/>
+      <c r="K574" s="1"/>
       <c r="L574" s="1" t="s">
         <v>148</v>
       </c>
@@ -34333,7 +34324,7 @@
       <c r="J575" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K575" s="6"/>
+      <c r="K575" s="1"/>
       <c r="L575" s="1" t="s">
         <v>148</v>
       </c>
@@ -34669,7 +34660,7 @@
       <c r="B582" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="C582" s="6"/>
+      <c r="C582" s="1"/>
       <c r="D582" s="1" t="s">
         <v>1544</v>
       </c>
@@ -34681,14 +34672,14 @@
       <c r="H582" s="3"/>
       <c r="I582" s="3"/>
       <c r="J582" s="3"/>
-      <c r="K582" s="6"/>
+      <c r="K582" s="1"/>
       <c r="L582" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M582" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="N582" s="6"/>
+      <c r="N582" s="1"/>
       <c r="O582" s="1" t="s">
         <v>28</v>
       </c>
@@ -34729,7 +34720,7 @@
       <c r="J583" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K583" s="6"/>
+      <c r="K583" s="1"/>
       <c r="L583" s="1" t="s">
         <v>148</v>
       </c>
@@ -35025,7 +35016,7 @@
       <c r="J589" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K589" s="6"/>
+      <c r="K589" s="1"/>
       <c r="L589" s="1" t="s">
         <v>148</v>
       </c>
@@ -35075,11 +35066,11 @@
       <c r="J590" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K590" s="6"/>
+      <c r="K590" s="1"/>
       <c r="L590" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M590" s="6"/>
+      <c r="M590" s="1"/>
       <c r="N590" s="1" t="s">
         <v>415</v>
       </c>
@@ -35123,7 +35114,7 @@
       <c r="J591" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K591" s="6"/>
+      <c r="K591" s="1"/>
       <c r="L591" s="1" t="s">
         <v>148</v>
       </c>
@@ -35173,7 +35164,7 @@
       <c r="J592" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K592" s="6"/>
+      <c r="K592" s="1"/>
       <c r="L592" s="1" t="s">
         <v>148</v>
       </c>
@@ -35321,7 +35312,7 @@
       <c r="H595" s="3"/>
       <c r="I595" s="3"/>
       <c r="J595" s="3"/>
-      <c r="K595" s="6"/>
+      <c r="K595" s="1"/>
       <c r="L595" s="4" t="s">
         <v>36</v>
       </c>
@@ -35371,7 +35362,7 @@
       <c r="J596" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K596" s="6"/>
+      <c r="K596" s="1"/>
       <c r="L596" s="1" t="s">
         <v>148</v>
       </c>
@@ -35421,7 +35412,7 @@
       <c r="J597" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K597" s="6"/>
+      <c r="K597" s="1"/>
       <c r="L597" s="1" t="s">
         <v>148</v>
       </c>
@@ -35471,7 +35462,7 @@
       <c r="J598" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K598" s="6"/>
+      <c r="K598" s="1"/>
       <c r="L598" s="1" t="s">
         <v>148</v>
       </c>
@@ -35563,7 +35554,7 @@
       <c r="H600" s="3"/>
       <c r="I600" s="3"/>
       <c r="J600" s="3"/>
-      <c r="K600" s="6"/>
+      <c r="K600" s="1"/>
       <c r="L600" s="4" t="s">
         <v>36</v>
       </c>
@@ -35903,7 +35894,7 @@
       <c r="H607" s="3"/>
       <c r="I607" s="3"/>
       <c r="J607" s="3"/>
-      <c r="K607" s="6"/>
+      <c r="K607" s="1"/>
       <c r="L607" s="4" t="s">
         <v>36</v>
       </c>
@@ -36053,7 +36044,7 @@
       <c r="J610" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K610" s="6"/>
+      <c r="K610" s="1"/>
       <c r="L610" s="1" t="s">
         <v>148</v>
       </c>
@@ -36103,7 +36094,7 @@
       <c r="J611" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K611" s="6"/>
+      <c r="K611" s="1"/>
       <c r="L611" s="1" t="s">
         <v>318</v>
       </c>
@@ -36417,7 +36408,7 @@
       <c r="J617" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K617" s="6"/>
+      <c r="K617" s="1"/>
       <c r="L617" s="1" t="s">
         <v>148</v>
       </c>
@@ -36621,7 +36612,7 @@
       <c r="J621" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K621" s="6"/>
+      <c r="K621" s="1"/>
       <c r="L621" s="1" t="s">
         <v>148</v>
       </c>
@@ -36667,7 +36658,7 @@
       <c r="H622" s="3"/>
       <c r="I622" s="3"/>
       <c r="J622" s="3"/>
-      <c r="K622" s="6"/>
+      <c r="K622" s="1"/>
       <c r="L622" s="4" t="s">
         <v>36</v>
       </c>
@@ -36717,7 +36708,7 @@
       <c r="J623" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K623" s="6"/>
+      <c r="K623" s="1"/>
       <c r="L623" s="1" t="s">
         <v>148</v>
       </c>
@@ -36767,7 +36758,7 @@
       <c r="J624" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K624" s="6"/>
+      <c r="K624" s="1"/>
       <c r="L624" s="1" t="s">
         <v>148</v>
       </c>
@@ -36817,7 +36808,7 @@
       <c r="J625" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K625" s="6"/>
+      <c r="K625" s="1"/>
       <c r="L625" s="1" t="s">
         <v>148</v>
       </c>
@@ -36867,7 +36858,7 @@
       <c r="J626" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K626" s="6"/>
+      <c r="K626" s="1"/>
       <c r="L626" s="1" t="s">
         <v>148</v>
       </c>
@@ -37015,7 +37006,7 @@
       <c r="J629" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K629" s="6"/>
+      <c r="K629" s="1"/>
       <c r="L629" s="1" t="s">
         <v>318</v>
       </c>
@@ -37065,7 +37056,7 @@
       <c r="J630" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K630" s="6"/>
+      <c r="K630" s="1"/>
       <c r="L630" s="1" t="s">
         <v>148</v>
       </c>
@@ -37143,8 +37134,8 @@
       <c r="B632" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="C632" s="6"/>
-      <c r="D632" s="6"/>
+      <c r="C632" s="1"/>
+      <c r="D632" s="1"/>
       <c r="E632" s="2">
         <v>44197</v>
       </c>
@@ -37153,7 +37144,7 @@
       <c r="H632" s="3"/>
       <c r="I632" s="3"/>
       <c r="J632" s="3"/>
-      <c r="K632" s="6"/>
+      <c r="K632" s="1"/>
       <c r="L632" s="1" t="s">
         <v>25</v>
       </c>
@@ -37203,7 +37194,7 @@
       <c r="J633" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K633" s="6"/>
+      <c r="K633" s="1"/>
       <c r="L633" s="1" t="s">
         <v>139</v>
       </c>
@@ -37304,7 +37295,7 @@
       <c r="M635" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N635" s="6"/>
+      <c r="N635" s="1"/>
       <c r="O635" s="1" t="s">
         <v>28</v>
       </c>
@@ -37345,7 +37336,7 @@
       <c r="J636" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K636" s="6"/>
+      <c r="K636" s="1"/>
       <c r="L636" s="1" t="s">
         <v>318</v>
       </c>
@@ -37395,7 +37386,7 @@
       <c r="J637" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K637" s="6"/>
+      <c r="K637" s="1"/>
       <c r="L637" s="1" t="s">
         <v>318</v>
       </c>
@@ -37441,7 +37432,7 @@
       <c r="H638" s="3"/>
       <c r="I638" s="3"/>
       <c r="J638" s="3"/>
-      <c r="K638" s="6"/>
+      <c r="K638" s="1"/>
       <c r="L638" s="1" t="s">
         <v>1176</v>
       </c>
@@ -37737,7 +37728,7 @@
       <c r="H644" s="3"/>
       <c r="I644" s="3"/>
       <c r="J644" s="3"/>
-      <c r="K644" s="6"/>
+      <c r="K644" s="1"/>
       <c r="L644" s="1" t="s">
         <v>25</v>
       </c>
@@ -37839,11 +37830,11 @@
       </c>
       <c r="I646" s="3"/>
       <c r="J646" s="3"/>
-      <c r="K646" s="6"/>
+      <c r="K646" s="1"/>
       <c r="L646" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M646" s="6"/>
+      <c r="M646" s="1"/>
       <c r="N646" s="1" t="s">
         <v>415</v>
       </c>
@@ -37894,7 +37885,7 @@
       <c r="M647" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="N647" s="6"/>
+      <c r="N647" s="1"/>
       <c r="O647" s="1" t="s">
         <v>28</v>
       </c>
@@ -38071,7 +38062,7 @@
       <c r="H651" s="3"/>
       <c r="I651" s="3"/>
       <c r="J651" s="3"/>
-      <c r="K651" s="6"/>
+      <c r="K651" s="1"/>
       <c r="L651" s="4" t="s">
         <v>36</v>
       </c>
@@ -38115,11 +38106,11 @@
       <c r="H652" s="3"/>
       <c r="I652" s="3"/>
       <c r="J652" s="3"/>
-      <c r="K652" s="6"/>
+      <c r="K652" s="1"/>
       <c r="L652" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M652" s="6"/>
+      <c r="M652" s="1"/>
       <c r="N652" s="1" t="s">
         <v>747</v>
       </c>
@@ -38163,7 +38154,7 @@
       <c r="J653" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K653" s="6"/>
+      <c r="K653" s="1"/>
       <c r="L653" s="1" t="s">
         <v>148</v>
       </c>
@@ -38213,7 +38204,7 @@
       <c r="J654" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K654" s="6"/>
+      <c r="K654" s="1"/>
       <c r="L654" s="1" t="s">
         <v>148</v>
       </c>
@@ -38317,7 +38308,7 @@
       <c r="J656" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K656" s="6"/>
+      <c r="K656" s="1"/>
       <c r="L656" s="1" t="s">
         <v>148</v>
       </c>
@@ -38398,7 +38389,7 @@
       <c r="C658" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="D658" s="6"/>
+      <c r="D658" s="1"/>
       <c r="E658" s="2">
         <v>44312</v>
       </c>
@@ -38538,7 +38529,7 @@
       <c r="C661" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D661" s="6"/>
+      <c r="D661" s="1"/>
       <c r="E661" s="2">
         <v>44312</v>
       </c>
@@ -38653,7 +38644,7 @@
       <c r="J663" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K663" s="6"/>
+      <c r="K663" s="1"/>
       <c r="L663" s="1" t="s">
         <v>148</v>
       </c>
@@ -38807,7 +38798,7 @@
       <c r="J666" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K666" s="6"/>
+      <c r="K666" s="1"/>
       <c r="L666" s="1" t="s">
         <v>148</v>
       </c>
@@ -38851,12 +38842,12 @@
       <c r="H667" s="3"/>
       <c r="I667" s="3"/>
       <c r="J667" s="3"/>
-      <c r="K667" s="6"/>
+      <c r="K667" s="1"/>
       <c r="L667" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M667" s="6"/>
-      <c r="N667" s="6"/>
+      <c r="M667" s="1"/>
+      <c r="N667" s="1"/>
       <c r="O667" s="1" t="s">
         <v>28</v>
       </c>
@@ -38897,7 +38888,7 @@
       <c r="J668" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K668" s="6"/>
+      <c r="K668" s="1"/>
       <c r="L668" s="1" t="s">
         <v>604</v>
       </c>
@@ -38999,7 +38990,7 @@
       <c r="J670" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K670" s="6"/>
+      <c r="K670" s="1"/>
       <c r="L670" s="1" t="s">
         <v>318</v>
       </c>
@@ -39084,7 +39075,7 @@
       <c r="C672" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D672" s="6"/>
+      <c r="D672" s="1"/>
       <c r="E672" s="2">
         <v>44312</v>
       </c>
@@ -39106,7 +39097,7 @@
       <c r="M672" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="N672" s="6"/>
+      <c r="N672" s="1"/>
       <c r="O672" s="1" t="s">
         <v>28</v>
       </c>
@@ -39253,7 +39244,7 @@
       <c r="J675" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K675" s="6"/>
+      <c r="K675" s="1"/>
       <c r="L675" s="1" t="s">
         <v>148</v>
       </c>
@@ -39297,12 +39288,12 @@
       <c r="H676" s="3"/>
       <c r="I676" s="3"/>
       <c r="J676" s="3"/>
-      <c r="K676" s="6"/>
+      <c r="K676" s="1"/>
       <c r="L676" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M676" s="6"/>
-      <c r="N676" s="6"/>
+      <c r="M676" s="1"/>
+      <c r="N676" s="1"/>
       <c r="O676" s="1" t="s">
         <v>28</v>
       </c>
@@ -39326,7 +39317,7 @@
       <c r="C677" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D677" s="6"/>
+      <c r="D677" s="1"/>
       <c r="E677" s="2">
         <v>44197</v>
       </c>
@@ -39335,12 +39326,12 @@
       <c r="H677" s="3"/>
       <c r="I677" s="3"/>
       <c r="J677" s="3"/>
-      <c r="K677" s="6"/>
+      <c r="K677" s="1"/>
       <c r="L677" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M677" s="6"/>
-      <c r="N677" s="6"/>
+      <c r="M677" s="1"/>
+      <c r="N677" s="1"/>
       <c r="O677" s="1" t="s">
         <v>28</v>
       </c>
@@ -39384,7 +39375,7 @@
       <c r="M678" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N678" s="6"/>
+      <c r="N678" s="1"/>
       <c r="O678" s="1" t="s">
         <v>28</v>
       </c>
@@ -39425,7 +39416,7 @@
       <c r="J679" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K679" s="6"/>
+      <c r="K679" s="1"/>
       <c r="L679" s="1" t="s">
         <v>148</v>
       </c>
@@ -39475,7 +39466,7 @@
       <c r="J680" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K680" s="6"/>
+      <c r="K680" s="1"/>
       <c r="L680" s="1" t="s">
         <v>148</v>
       </c>
@@ -39525,7 +39516,7 @@
       <c r="J681" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K681" s="6"/>
+      <c r="K681" s="1"/>
       <c r="L681" s="1" t="s">
         <v>148</v>
       </c>
@@ -39569,12 +39560,12 @@
       <c r="H682" s="3"/>
       <c r="I682" s="3"/>
       <c r="J682" s="3"/>
-      <c r="K682" s="6"/>
+      <c r="K682" s="1"/>
       <c r="L682" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M682" s="6"/>
-      <c r="N682" s="6"/>
+      <c r="M682" s="1"/>
+      <c r="N682" s="1"/>
       <c r="O682" s="1" t="s">
         <v>28</v>
       </c>
@@ -39609,12 +39600,12 @@
       <c r="H683" s="3"/>
       <c r="I683" s="3"/>
       <c r="J683" s="3"/>
-      <c r="K683" s="6"/>
+      <c r="K683" s="1"/>
       <c r="L683" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M683" s="6"/>
-      <c r="N683" s="6"/>
+      <c r="M683" s="1"/>
+      <c r="N683" s="1"/>
       <c r="O683" s="1" t="s">
         <v>28</v>
       </c>
@@ -39649,12 +39640,12 @@
       <c r="H684" s="3"/>
       <c r="I684" s="3"/>
       <c r="J684" s="3"/>
-      <c r="K684" s="6"/>
+      <c r="K684" s="1"/>
       <c r="L684" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M684" s="6"/>
-      <c r="N684" s="6"/>
+      <c r="M684" s="1"/>
+      <c r="N684" s="1"/>
       <c r="O684" s="1" t="s">
         <v>28</v>
       </c>
@@ -39887,7 +39878,7 @@
       <c r="J689" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K689" s="6"/>
+      <c r="K689" s="1"/>
       <c r="L689" s="1" t="s">
         <v>318</v>
       </c>
@@ -39937,7 +39928,7 @@
       <c r="J690" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K690" s="6"/>
+      <c r="K690" s="1"/>
       <c r="L690" s="1" t="s">
         <v>139</v>
       </c>
@@ -39987,7 +39978,7 @@
       <c r="J691" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K691" s="6"/>
+      <c r="K691" s="1"/>
       <c r="L691" s="1" t="s">
         <v>148</v>
       </c>
@@ -40037,7 +40028,7 @@
       <c r="J692" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K692" s="6"/>
+      <c r="K692" s="1"/>
       <c r="L692" s="1" t="s">
         <v>318</v>
       </c>
@@ -40081,12 +40072,12 @@
       <c r="H693" s="3"/>
       <c r="I693" s="3"/>
       <c r="J693" s="3"/>
-      <c r="K693" s="6"/>
+      <c r="K693" s="1"/>
       <c r="L693" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M693" s="6"/>
-      <c r="N693" s="6"/>
+      <c r="M693" s="1"/>
+      <c r="N693" s="1"/>
       <c r="O693" s="1" t="s">
         <v>28</v>
       </c>
@@ -40162,7 +40153,7 @@
       <c r="C695" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D695" s="6"/>
+      <c r="D695" s="1"/>
       <c r="E695" s="2">
         <v>44312</v>
       </c>
@@ -40205,8 +40196,8 @@
       <c r="B696" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="C696" s="6"/>
-      <c r="D696" s="6"/>
+      <c r="C696" s="1"/>
+      <c r="D696" s="1"/>
       <c r="E696" s="2">
         <v>44197</v>
       </c>
@@ -40215,7 +40206,7 @@
       <c r="H696" s="3"/>
       <c r="I696" s="3"/>
       <c r="J696" s="3"/>
-      <c r="K696" s="6"/>
+      <c r="K696" s="1"/>
       <c r="L696" s="4" t="s">
         <v>36</v>
       </c>
@@ -40317,7 +40308,7 @@
       <c r="J698" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K698" s="6"/>
+      <c r="K698" s="1"/>
       <c r="L698" s="1" t="s">
         <v>139</v>
       </c>
@@ -40520,7 +40511,7 @@
       <c r="M702" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N702" s="6"/>
+      <c r="N702" s="1"/>
       <c r="O702" s="1" t="s">
         <v>28</v>
       </c>
@@ -40555,11 +40546,11 @@
       <c r="H703" s="3"/>
       <c r="I703" s="3"/>
       <c r="J703" s="3"/>
-      <c r="K703" s="6"/>
+      <c r="K703" s="1"/>
       <c r="L703" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M703" s="6"/>
+      <c r="M703" s="1"/>
       <c r="N703" s="1" t="s">
         <v>747</v>
       </c>
@@ -40708,7 +40699,7 @@
       <c r="M706" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="N706" s="6"/>
+      <c r="N706" s="1"/>
       <c r="O706" s="1" t="s">
         <v>28</v>
       </c>
@@ -41184,7 +41175,7 @@
       <c r="C716" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="D716" s="6"/>
+      <c r="D716" s="1"/>
       <c r="E716" s="2">
         <v>44197</v>
       </c>
@@ -41195,14 +41186,14 @@
       <c r="H716" s="3"/>
       <c r="I716" s="3"/>
       <c r="J716" s="3"/>
-      <c r="K716" s="6"/>
+      <c r="K716" s="1"/>
       <c r="L716" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M716" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="N716" s="6"/>
+      <c r="N716" s="1"/>
       <c r="O716" s="1" t="s">
         <v>28</v>
       </c>
@@ -41237,7 +41228,7 @@
       <c r="H717" s="3"/>
       <c r="I717" s="3"/>
       <c r="J717" s="3"/>
-      <c r="K717" s="6"/>
+      <c r="K717" s="1"/>
       <c r="L717" s="1" t="s">
         <v>25</v>
       </c>
@@ -41333,12 +41324,12 @@
       <c r="H719" s="3"/>
       <c r="I719" s="3"/>
       <c r="J719" s="3"/>
-      <c r="K719" s="6"/>
+      <c r="K719" s="1"/>
       <c r="L719" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M719" s="6"/>
-      <c r="N719" s="6"/>
+      <c r="M719" s="1"/>
+      <c r="N719" s="1"/>
       <c r="O719" s="1" t="s">
         <v>28</v>
       </c>
@@ -41455,8 +41446,8 @@
       <c r="B722" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="C722" s="6"/>
-      <c r="D722" s="6"/>
+      <c r="C722" s="1"/>
+      <c r="D722" s="1"/>
       <c r="E722" s="2">
         <v>44197</v>
       </c>
@@ -41465,7 +41456,7 @@
       <c r="H722" s="3"/>
       <c r="I722" s="3"/>
       <c r="J722" s="3"/>
-      <c r="K722" s="6"/>
+      <c r="K722" s="1"/>
       <c r="L722" s="4" t="s">
         <v>36</v>
       </c>
@@ -41498,7 +41489,7 @@
       <c r="C723" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D723" s="6"/>
+      <c r="D723" s="1"/>
       <c r="E723" s="2">
         <v>44197</v>
       </c>
@@ -41507,12 +41498,12 @@
       <c r="H723" s="3"/>
       <c r="I723" s="3"/>
       <c r="J723" s="3"/>
-      <c r="K723" s="6"/>
+      <c r="K723" s="1"/>
       <c r="L723" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M723" s="6"/>
-      <c r="N723" s="6"/>
+      <c r="M723" s="1"/>
+      <c r="N723" s="1"/>
       <c r="O723" s="1" t="s">
         <v>28</v>
       </c>
@@ -41547,7 +41538,7 @@
       <c r="H724" s="3"/>
       <c r="I724" s="3"/>
       <c r="J724" s="3"/>
-      <c r="K724" s="6"/>
+      <c r="K724" s="1"/>
       <c r="L724" s="4" t="s">
         <v>36</v>
       </c>
@@ -41628,7 +41619,7 @@
       <c r="C726" s="1" t="s">
         <v>1816</v>
       </c>
-      <c r="D726" s="6"/>
+      <c r="D726" s="1"/>
       <c r="E726" s="2">
         <v>44317</v>
       </c>
@@ -41747,7 +41738,7 @@
       <c r="H728" s="3"/>
       <c r="I728" s="3"/>
       <c r="J728" s="3"/>
-      <c r="K728" s="6"/>
+      <c r="K728" s="1"/>
       <c r="L728" s="4" t="s">
         <v>36</v>
       </c>
@@ -41780,7 +41771,7 @@
       <c r="C729" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="D729" s="6"/>
+      <c r="D729" s="1"/>
       <c r="E729" s="2">
         <v>44197</v>
       </c>
@@ -41791,14 +41782,14 @@
       <c r="H729" s="3"/>
       <c r="I729" s="3"/>
       <c r="J729" s="3"/>
-      <c r="K729" s="6"/>
+      <c r="K729" s="1"/>
       <c r="L729" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M729" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="N729" s="6"/>
+      <c r="N729" s="1"/>
       <c r="O729" s="1" t="s">
         <v>28</v>
       </c>
@@ -41881,7 +41872,7 @@
       <c r="H731" s="3"/>
       <c r="I731" s="3"/>
       <c r="J731" s="3"/>
-      <c r="K731" s="6"/>
+      <c r="K731" s="1"/>
       <c r="L731" s="4" t="s">
         <v>36</v>
       </c>
@@ -41983,7 +41974,7 @@
       <c r="L733" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M733" s="6"/>
+      <c r="M733" s="1"/>
       <c r="N733" s="1" t="s">
         <v>73</v>
       </c>
@@ -42129,7 +42120,7 @@
       <c r="J736" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K736" s="6"/>
+      <c r="K736" s="1"/>
       <c r="L736" s="1" t="s">
         <v>148</v>
       </c>
@@ -42179,7 +42170,7 @@
       <c r="J737" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K737" s="6"/>
+      <c r="K737" s="1"/>
       <c r="L737" s="1" t="s">
         <v>259</v>
       </c>
@@ -42229,7 +42220,7 @@
       <c r="J738" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K738" s="6"/>
+      <c r="K738" s="1"/>
       <c r="L738" s="1" t="s">
         <v>148</v>
       </c>
@@ -42279,7 +42270,7 @@
       <c r="J739" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K739" s="6"/>
+      <c r="K739" s="1"/>
       <c r="L739" s="1" t="s">
         <v>148</v>
       </c>
@@ -42329,7 +42320,7 @@
       <c r="J740" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K740" s="6"/>
+      <c r="K740" s="1"/>
       <c r="L740" s="1" t="s">
         <v>148</v>
       </c>
@@ -42379,7 +42370,7 @@
       <c r="J741" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K741" s="6"/>
+      <c r="K741" s="1"/>
       <c r="L741" s="1" t="s">
         <v>259</v>
       </c>
@@ -42429,7 +42420,7 @@
       <c r="J742" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K742" s="6"/>
+      <c r="K742" s="1"/>
       <c r="L742" s="1" t="s">
         <v>148</v>
       </c>
@@ -42479,7 +42470,7 @@
       <c r="J743" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K743" s="6"/>
+      <c r="K743" s="1"/>
       <c r="L743" s="1" t="s">
         <v>318</v>
       </c>
@@ -42529,7 +42520,7 @@
       <c r="J744" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K744" s="6"/>
+      <c r="K744" s="1"/>
       <c r="L744" s="1" t="s">
         <v>259</v>
       </c>
@@ -42579,7 +42570,7 @@
       <c r="J745" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K745" s="6"/>
+      <c r="K745" s="1"/>
       <c r="L745" s="1" t="s">
         <v>139</v>
       </c>
@@ -42629,7 +42620,7 @@
       <c r="J746" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K746" s="6"/>
+      <c r="K746" s="1"/>
       <c r="L746" s="1" t="s">
         <v>318</v>
       </c>
@@ -42675,7 +42666,7 @@
       <c r="H747" s="3"/>
       <c r="I747" s="3"/>
       <c r="J747" s="3"/>
-      <c r="K747" s="6"/>
+      <c r="K747" s="1"/>
       <c r="L747" s="1" t="s">
         <v>1176</v>
       </c>
@@ -42725,7 +42716,7 @@
       <c r="J748" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K748" s="6"/>
+      <c r="K748" s="1"/>
       <c r="L748" s="1" t="s">
         <v>259</v>
       </c>
@@ -42775,7 +42766,7 @@
       <c r="J749" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K749" s="6"/>
+      <c r="K749" s="1"/>
       <c r="L749" s="1" t="s">
         <v>148</v>
       </c>
@@ -42825,7 +42816,7 @@
       <c r="J750" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K750" s="6"/>
+      <c r="K750" s="1"/>
       <c r="L750" s="1" t="s">
         <v>318</v>
       </c>
@@ -42869,14 +42860,14 @@
       <c r="H751" s="3"/>
       <c r="I751" s="3"/>
       <c r="J751" s="3"/>
-      <c r="K751" s="6"/>
+      <c r="K751" s="1"/>
       <c r="L751" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M751" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="N751" s="6"/>
+      <c r="N751" s="1"/>
       <c r="O751" s="1" t="s">
         <v>28</v>
       </c>
@@ -42911,12 +42902,12 @@
       <c r="H752" s="3"/>
       <c r="I752" s="3"/>
       <c r="J752" s="3"/>
-      <c r="K752" s="6"/>
+      <c r="K752" s="1"/>
       <c r="L752" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M752" s="6"/>
-      <c r="N752" s="6"/>
+      <c r="M752" s="1"/>
+      <c r="N752" s="1"/>
       <c r="O752" s="1" t="s">
         <v>28</v>
       </c>
@@ -43295,14 +43286,14 @@
       <c r="H760" s="3"/>
       <c r="I760" s="3"/>
       <c r="J760" s="3"/>
-      <c r="K760" s="6"/>
+      <c r="K760" s="1"/>
       <c r="L760" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M760" s="1" t="s">
         <v>1888</v>
       </c>
-      <c r="N760" s="6"/>
+      <c r="N760" s="1"/>
       <c r="O760" s="1" t="s">
         <v>28</v>
       </c>
@@ -43444,7 +43435,7 @@
       <c r="M763" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="N763" s="6"/>
+      <c r="N763" s="1"/>
       <c r="O763" s="1" t="s">
         <v>28</v>
       </c>
@@ -43791,7 +43782,7 @@
       <c r="J770" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="K770" s="6"/>
+      <c r="K770" s="1"/>
       <c r="L770" s="1" t="s">
         <v>148</v>
       </c>
@@ -43891,7 +43882,7 @@
       <c r="J772" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K772" s="6"/>
+      <c r="K772" s="1"/>
       <c r="L772" s="1" t="s">
         <v>148</v>
       </c>
@@ -44033,7 +44024,7 @@
       <c r="H775" s="3"/>
       <c r="I775" s="3"/>
       <c r="J775" s="3"/>
-      <c r="K775" s="6"/>
+      <c r="K775" s="1"/>
       <c r="L775" s="4" t="s">
         <v>36</v>
       </c>
@@ -44342,7 +44333,7 @@
       <c r="M781" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="N781" s="6"/>
+      <c r="N781" s="1"/>
       <c r="O781" s="1" t="s">
         <v>28</v>
       </c>
@@ -44575,7 +44566,7 @@
       <c r="J786" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K786" s="6"/>
+      <c r="K786" s="1"/>
       <c r="L786" s="1" t="s">
         <v>148</v>
       </c>
@@ -44625,7 +44616,7 @@
       <c r="J787" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K787" s="6"/>
+      <c r="K787" s="1"/>
       <c r="L787" s="1" t="s">
         <v>318</v>
       </c>
@@ -44678,7 +44669,7 @@
       <c r="M788" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="N788" s="6"/>
+      <c r="N788" s="1"/>
       <c r="O788" s="1" t="s">
         <v>28</v>
       </c>
@@ -44722,7 +44713,7 @@
       <c r="M789" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="N789" s="6"/>
+      <c r="N789" s="1"/>
       <c r="O789" s="1" t="s">
         <v>28</v>
       </c>
@@ -44746,7 +44737,7 @@
       <c r="C790" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D790" s="6"/>
+      <c r="D790" s="1"/>
       <c r="E790" s="2">
         <v>44323</v>
       </c>
@@ -44963,7 +44954,7 @@
       <c r="J794" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K794" s="6"/>
+      <c r="K794" s="1"/>
       <c r="L794" s="1" t="s">
         <v>148</v>
       </c>
@@ -45013,7 +45004,7 @@
       <c r="J795" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K795" s="6"/>
+      <c r="K795" s="1"/>
       <c r="L795" s="1" t="s">
         <v>148</v>
       </c>
@@ -45063,7 +45054,7 @@
       <c r="J796" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K796" s="6"/>
+      <c r="K796" s="1"/>
       <c r="L796" s="1" t="s">
         <v>259</v>
       </c>
@@ -45159,7 +45150,7 @@
       <c r="H798" s="3"/>
       <c r="I798" s="3"/>
       <c r="J798" s="3"/>
-      <c r="K798" s="6"/>
+      <c r="K798" s="1"/>
       <c r="L798" s="4" t="s">
         <v>36</v>
       </c>
@@ -45415,7 +45406,7 @@
       <c r="J803" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K803" s="6"/>
+      <c r="K803" s="1"/>
       <c r="L803" s="1" t="s">
         <v>318</v>
       </c>
@@ -45459,7 +45450,7 @@
       <c r="H804" s="3"/>
       <c r="I804" s="3"/>
       <c r="J804" s="3"/>
-      <c r="K804" s="6"/>
+      <c r="K804" s="1"/>
       <c r="L804" s="1" t="s">
         <v>25</v>
       </c>
@@ -45559,7 +45550,7 @@
       <c r="J806" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K806" s="6"/>
+      <c r="K806" s="1"/>
       <c r="L806" s="1" t="s">
         <v>318</v>
       </c>
@@ -45609,7 +45600,7 @@
       <c r="J807" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K807" s="6"/>
+      <c r="K807" s="1"/>
       <c r="L807" s="1" t="s">
         <v>259</v>
       </c>
@@ -45659,7 +45650,7 @@
       <c r="J808" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K808" s="6"/>
+      <c r="K808" s="1"/>
       <c r="L808" s="1" t="s">
         <v>259</v>
       </c>
@@ -45709,7 +45700,7 @@
       <c r="J809" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K809" s="6"/>
+      <c r="K809" s="1"/>
       <c r="L809" s="1" t="s">
         <v>148</v>
       </c>
@@ -45801,7 +45792,7 @@
       <c r="H811" s="3"/>
       <c r="I811" s="3"/>
       <c r="J811" s="3"/>
-      <c r="K811" s="6"/>
+      <c r="K811" s="1"/>
       <c r="L811" s="1" t="s">
         <v>1176</v>
       </c>
@@ -45947,7 +45938,7 @@
       <c r="H814" s="3"/>
       <c r="I814" s="3"/>
       <c r="J814" s="3"/>
-      <c r="K814" s="6"/>
+      <c r="K814" s="1"/>
       <c r="L814" s="4" t="s">
         <v>36</v>
       </c>
@@ -46245,12 +46236,12 @@
       <c r="H820" s="3"/>
       <c r="I820" s="3"/>
       <c r="J820" s="3"/>
-      <c r="K820" s="6"/>
+      <c r="K820" s="1"/>
       <c r="L820" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M820" s="6"/>
-      <c r="N820" s="6"/>
+      <c r="M820" s="1"/>
+      <c r="N820" s="1"/>
       <c r="O820" s="1" t="s">
         <v>28</v>
       </c>
@@ -46755,7 +46746,7 @@
       <c r="J830" s="1" t="s">
         <v>1849</v>
       </c>
-      <c r="K830" s="6"/>
+      <c r="K830" s="1"/>
       <c r="L830" s="1" t="s">
         <v>259</v>
       </c>
@@ -46905,7 +46896,7 @@
       <c r="J833" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K833" s="6"/>
+      <c r="K833" s="1"/>
       <c r="L833" s="1" t="s">
         <v>318</v>
       </c>
@@ -46955,7 +46946,7 @@
       <c r="J834" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K834" s="6"/>
+      <c r="K834" s="1"/>
       <c r="L834" s="1" t="s">
         <v>318</v>
       </c>
@@ -47005,7 +46996,7 @@
       <c r="J835" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K835" s="6"/>
+      <c r="K835" s="1"/>
       <c r="L835" s="1" t="s">
         <v>259</v>
       </c>
@@ -47055,7 +47046,7 @@
       <c r="J836" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K836" s="6"/>
+      <c r="K836" s="1"/>
       <c r="L836" s="1" t="s">
         <v>139</v>
       </c>
@@ -47105,7 +47096,7 @@
       <c r="J837" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K837" s="6"/>
+      <c r="K837" s="1"/>
       <c r="L837" s="1" t="s">
         <v>318</v>
       </c>
@@ -47155,7 +47146,7 @@
       <c r="J838" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K838" s="6"/>
+      <c r="K838" s="1"/>
       <c r="L838" s="1" t="s">
         <v>148</v>
       </c>
@@ -47303,7 +47294,7 @@
       <c r="J841" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K841" s="6"/>
+      <c r="K841" s="1"/>
       <c r="L841" s="1" t="s">
         <v>318</v>
       </c>
@@ -47353,7 +47344,7 @@
       <c r="J842" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K842" s="6"/>
+      <c r="K842" s="1"/>
       <c r="L842" s="1" t="s">
         <v>318</v>
       </c>
@@ -47403,7 +47394,7 @@
       <c r="J843" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K843" s="6"/>
+      <c r="K843" s="1"/>
       <c r="L843" s="1" t="s">
         <v>148</v>
       </c>
@@ -47453,7 +47444,7 @@
       <c r="J844" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K844" s="6"/>
+      <c r="K844" s="1"/>
       <c r="L844" s="1" t="s">
         <v>318</v>
       </c>
@@ -47503,7 +47494,7 @@
       <c r="J845" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K845" s="6"/>
+      <c r="K845" s="1"/>
       <c r="L845" s="1" t="s">
         <v>318</v>
       </c>
@@ -47553,7 +47544,7 @@
       <c r="J846" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K846" s="6"/>
+      <c r="K846" s="1"/>
       <c r="L846" s="1" t="s">
         <v>318</v>
       </c>
@@ -47603,7 +47594,7 @@
       <c r="J847" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K847" s="6"/>
+      <c r="K847" s="1"/>
       <c r="L847" s="1" t="s">
         <v>148</v>
       </c>
@@ -47653,7 +47644,7 @@
       <c r="J848" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K848" s="6"/>
+      <c r="K848" s="1"/>
       <c r="L848" s="1" t="s">
         <v>148</v>
       </c>
@@ -47703,7 +47694,7 @@
       <c r="J849" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K849" s="6"/>
+      <c r="K849" s="1"/>
       <c r="L849" s="1" t="s">
         <v>318</v>
       </c>
@@ -47753,7 +47744,7 @@
       <c r="J850" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K850" s="6"/>
+      <c r="K850" s="1"/>
       <c r="L850" s="1" t="s">
         <v>318</v>
       </c>
@@ -47803,7 +47794,7 @@
       <c r="J851" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K851" s="6"/>
+      <c r="K851" s="1"/>
       <c r="L851" s="1" t="s">
         <v>318</v>
       </c>
@@ -47853,7 +47844,7 @@
       <c r="J852" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K852" s="6"/>
+      <c r="K852" s="1"/>
       <c r="L852" s="1" t="s">
         <v>318</v>
       </c>
@@ -47903,7 +47894,7 @@
       <c r="J853" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K853" s="6"/>
+      <c r="K853" s="1"/>
       <c r="L853" s="1" t="s">
         <v>318</v>
       </c>
@@ -47953,7 +47944,7 @@
       <c r="J854" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K854" s="6"/>
+      <c r="K854" s="1"/>
       <c r="L854" s="1" t="s">
         <v>318</v>
       </c>
@@ -48003,7 +47994,7 @@
       <c r="J855" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K855" s="6"/>
+      <c r="K855" s="1"/>
       <c r="L855" s="1" t="s">
         <v>318</v>
       </c>
@@ -48106,7 +48097,7 @@
       <c r="M857" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="N857" s="6"/>
+      <c r="N857" s="1"/>
       <c r="O857" s="1" t="s">
         <v>28</v>
       </c>
@@ -48249,11 +48240,11 @@
       <c r="J860" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K860" s="6"/>
+      <c r="K860" s="1"/>
       <c r="L860" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M860" s="6"/>
+      <c r="M860" s="1"/>
       <c r="N860" s="1" t="s">
         <v>415</v>
       </c>
@@ -48293,7 +48284,7 @@
       <c r="H861" s="3"/>
       <c r="I861" s="3"/>
       <c r="J861" s="3"/>
-      <c r="K861" s="6"/>
+      <c r="K861" s="1"/>
       <c r="L861" s="1" t="s">
         <v>1176</v>
       </c>
@@ -48337,7 +48328,7 @@
       <c r="H862" s="3"/>
       <c r="I862" s="3"/>
       <c r="J862" s="3"/>
-      <c r="K862" s="6"/>
+      <c r="K862" s="1"/>
       <c r="L862" s="1" t="s">
         <v>25</v>
       </c>
@@ -48387,7 +48378,7 @@
       <c r="J863" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K863" s="6"/>
+      <c r="K863" s="1"/>
       <c r="L863" s="1" t="s">
         <v>148</v>
       </c>
@@ -48437,7 +48428,7 @@
       <c r="J864" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K864" s="6"/>
+      <c r="K864" s="1"/>
       <c r="L864" s="1" t="s">
         <v>148</v>
       </c>
@@ -48481,7 +48472,7 @@
       <c r="H865" s="3"/>
       <c r="I865" s="3"/>
       <c r="J865" s="3"/>
-      <c r="K865" s="6"/>
+      <c r="K865" s="1"/>
       <c r="L865" s="1" t="s">
         <v>25</v>
       </c>
@@ -48536,7 +48527,7 @@
       <c r="M866" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="N866" s="6"/>
+      <c r="N866" s="1"/>
       <c r="O866" s="1" t="s">
         <v>28</v>
       </c>
@@ -48721,7 +48712,7 @@
       <c r="H870" s="3"/>
       <c r="I870" s="3"/>
       <c r="J870" s="3"/>
-      <c r="K870" s="6"/>
+      <c r="K870" s="1"/>
       <c r="L870" s="1" t="s">
         <v>25</v>
       </c>
@@ -48871,7 +48862,7 @@
       <c r="H873" s="3"/>
       <c r="I873" s="3"/>
       <c r="J873" s="3"/>
-      <c r="K873" s="6"/>
+      <c r="K873" s="1"/>
       <c r="L873" s="4" t="s">
         <v>36</v>
       </c>
@@ -49163,7 +49154,7 @@
       <c r="H879" s="3"/>
       <c r="I879" s="3"/>
       <c r="J879" s="3"/>
-      <c r="K879" s="6"/>
+      <c r="K879" s="1"/>
       <c r="L879" s="4" t="s">
         <v>36</v>
       </c>
@@ -49207,7 +49198,7 @@
       <c r="H880" s="3"/>
       <c r="I880" s="3"/>
       <c r="J880" s="3"/>
-      <c r="K880" s="6"/>
+      <c r="K880" s="1"/>
       <c r="L880" s="1" t="s">
         <v>25</v>
       </c>
@@ -49399,7 +49390,7 @@
       <c r="H884" s="3"/>
       <c r="I884" s="3"/>
       <c r="J884" s="3"/>
-      <c r="K884" s="6"/>
+      <c r="K884" s="1"/>
       <c r="L884" s="1" t="s">
         <v>25</v>
       </c>
@@ -49443,7 +49434,7 @@
       <c r="H885" s="3"/>
       <c r="I885" s="3"/>
       <c r="J885" s="3"/>
-      <c r="K885" s="6"/>
+      <c r="K885" s="1"/>
       <c r="L885" s="1" t="s">
         <v>25</v>
       </c>
@@ -49539,7 +49530,7 @@
       <c r="H887" s="3"/>
       <c r="I887" s="3"/>
       <c r="J887" s="3"/>
-      <c r="K887" s="6"/>
+      <c r="K887" s="1"/>
       <c r="L887" s="1" t="s">
         <v>25</v>
       </c>
@@ -49825,7 +49816,7 @@
       <c r="H893" s="3"/>
       <c r="I893" s="3"/>
       <c r="J893" s="3"/>
-      <c r="K893" s="6"/>
+      <c r="K893" s="1"/>
       <c r="L893" s="1" t="s">
         <v>25</v>
       </c>
@@ -49969,7 +49960,7 @@
       <c r="H896" s="3"/>
       <c r="I896" s="3"/>
       <c r="J896" s="3"/>
-      <c r="K896" s="6"/>
+      <c r="K896" s="1"/>
       <c r="L896" s="1" t="s">
         <v>25</v>
       </c>
@@ -50013,7 +50004,7 @@
       <c r="H897" s="3"/>
       <c r="I897" s="3"/>
       <c r="J897" s="3"/>
-      <c r="K897" s="6"/>
+      <c r="K897" s="1"/>
       <c r="L897" s="1" t="s">
         <v>25</v>
       </c>
@@ -50107,7 +50098,7 @@
       <c r="H899" s="3"/>
       <c r="I899" s="3"/>
       <c r="J899" s="3"/>
-      <c r="K899" s="6"/>
+      <c r="K899" s="1"/>
       <c r="L899" s="4" t="s">
         <v>36</v>
       </c>
@@ -50205,7 +50196,7 @@
       <c r="J901" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K901" s="6"/>
+      <c r="K901" s="1"/>
       <c r="L901" s="1" t="s">
         <v>148</v>
       </c>
@@ -50314,7 +50305,7 @@
       <c r="M903" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="N903" s="6"/>
+      <c r="N903" s="1"/>
       <c r="O903" s="1" t="s">
         <v>28</v>
       </c>
@@ -50405,7 +50396,7 @@
       <c r="H905" s="3"/>
       <c r="I905" s="3"/>
       <c r="J905" s="3"/>
-      <c r="K905" s="6"/>
+      <c r="K905" s="1"/>
       <c r="L905" s="1" t="s">
         <v>25</v>
       </c>
@@ -50826,7 +50817,7 @@
       <c r="M913" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N913" s="6"/>
+      <c r="N913" s="1"/>
       <c r="O913" s="1" t="s">
         <v>28</v>
       </c>
@@ -50967,7 +50958,7 @@
       <c r="J916" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K916" s="6"/>
+      <c r="K916" s="1"/>
       <c r="L916" s="1" t="s">
         <v>148</v>
       </c>
@@ -51069,7 +51060,7 @@
       <c r="J918" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K918" s="6"/>
+      <c r="K918" s="1"/>
       <c r="L918" s="1" t="s">
         <v>259</v>
       </c>
@@ -51119,7 +51110,7 @@
       <c r="J919" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K919" s="6"/>
+      <c r="K919" s="1"/>
       <c r="L919" s="1" t="s">
         <v>148</v>
       </c>
@@ -51169,7 +51160,7 @@
       <c r="J920" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K920" s="6"/>
+      <c r="K920" s="1"/>
       <c r="L920" s="1" t="s">
         <v>148</v>
       </c>
@@ -51219,7 +51210,7 @@
       <c r="J921" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K921" s="6"/>
+      <c r="K921" s="1"/>
       <c r="L921" s="1" t="s">
         <v>318</v>
       </c>
@@ -51369,7 +51360,7 @@
       <c r="J924" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K924" s="6"/>
+      <c r="K924" s="1"/>
       <c r="L924" s="1" t="s">
         <v>148</v>
       </c>
@@ -51419,7 +51410,7 @@
       <c r="J925" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K925" s="6"/>
+      <c r="K925" s="1"/>
       <c r="L925" s="1" t="s">
         <v>148</v>
       </c>
@@ -51469,7 +51460,7 @@
       <c r="J926" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K926" s="6"/>
+      <c r="K926" s="1"/>
       <c r="L926" s="1" t="s">
         <v>148</v>
       </c>
@@ -51519,7 +51510,7 @@
       <c r="J927" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K927" s="6"/>
+      <c r="K927" s="1"/>
       <c r="L927" s="1" t="s">
         <v>148</v>
       </c>
@@ -51569,7 +51560,7 @@
       <c r="J928" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K928" s="6"/>
+      <c r="K928" s="1"/>
       <c r="L928" s="1" t="s">
         <v>148</v>
       </c>
@@ -51619,7 +51610,7 @@
       <c r="J929" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K929" s="6"/>
+      <c r="K929" s="1"/>
       <c r="L929" s="1" t="s">
         <v>148</v>
       </c>
@@ -51669,7 +51660,7 @@
       <c r="J930" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K930" s="6"/>
+      <c r="K930" s="1"/>
       <c r="L930" s="1" t="s">
         <v>148</v>
       </c>
@@ -51719,7 +51710,7 @@
       <c r="J931" s="1" t="s">
         <v>2196</v>
       </c>
-      <c r="K931" s="6"/>
+      <c r="K931" s="1"/>
       <c r="L931" s="1" t="s">
         <v>148</v>
       </c>
@@ -51769,7 +51760,7 @@
       <c r="J932" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K932" s="6"/>
+      <c r="K932" s="1"/>
       <c r="L932" s="1" t="s">
         <v>148</v>
       </c>
@@ -51819,7 +51810,7 @@
       <c r="J933" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K933" s="6"/>
+      <c r="K933" s="1"/>
       <c r="L933" s="1" t="s">
         <v>148</v>
       </c>
@@ -51869,7 +51860,7 @@
       <c r="J934" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K934" s="6"/>
+      <c r="K934" s="1"/>
       <c r="L934" s="1" t="s">
         <v>148</v>
       </c>
@@ -51919,7 +51910,7 @@
       <c r="J935" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K935" s="6"/>
+      <c r="K935" s="1"/>
       <c r="L935" s="1" t="s">
         <v>148</v>
       </c>
@@ -51969,7 +51960,7 @@
       <c r="J936" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K936" s="6"/>
+      <c r="K936" s="1"/>
       <c r="L936" s="1" t="s">
         <v>318</v>
       </c>
@@ -52019,7 +52010,7 @@
       <c r="J937" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K937" s="6"/>
+      <c r="K937" s="1"/>
       <c r="L937" s="1" t="s">
         <v>148</v>
       </c>
@@ -52069,7 +52060,7 @@
       <c r="J938" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K938" s="6"/>
+      <c r="K938" s="1"/>
       <c r="L938" s="1" t="s">
         <v>148</v>
       </c>
@@ -52119,7 +52110,7 @@
       <c r="J939" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K939" s="6"/>
+      <c r="K939" s="1"/>
       <c r="L939" s="1" t="s">
         <v>148</v>
       </c>
@@ -52169,7 +52160,7 @@
       <c r="J940" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K940" s="6"/>
+      <c r="K940" s="1"/>
       <c r="L940" s="1" t="s">
         <v>148</v>
       </c>
@@ -52219,7 +52210,7 @@
       <c r="J941" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K941" s="6"/>
+      <c r="K941" s="1"/>
       <c r="L941" s="1" t="s">
         <v>318</v>
       </c>
@@ -52269,7 +52260,7 @@
       <c r="J942" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K942" s="6"/>
+      <c r="K942" s="1"/>
       <c r="L942" s="1" t="s">
         <v>148</v>
       </c>
@@ -52319,7 +52310,7 @@
       <c r="J943" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K943" s="6"/>
+      <c r="K943" s="1"/>
       <c r="L943" s="1" t="s">
         <v>148</v>
       </c>
@@ -52369,7 +52360,7 @@
       <c r="J944" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K944" s="6"/>
+      <c r="K944" s="1"/>
       <c r="L944" s="1" t="s">
         <v>148</v>
       </c>
@@ -52419,7 +52410,7 @@
       <c r="J945" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K945" s="6"/>
+      <c r="K945" s="1"/>
       <c r="L945" s="1" t="s">
         <v>148</v>
       </c>
@@ -52469,7 +52460,7 @@
       <c r="J946" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K946" s="6"/>
+      <c r="K946" s="1"/>
       <c r="L946" s="1" t="s">
         <v>318</v>
       </c>
@@ -52513,14 +52504,14 @@
       <c r="H947" s="3"/>
       <c r="I947" s="3"/>
       <c r="J947" s="3"/>
-      <c r="K947" s="6"/>
+      <c r="K947" s="1"/>
       <c r="L947" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M947" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="N947" s="6"/>
+      <c r="N947" s="1"/>
       <c r="O947" s="1" t="s">
         <v>28</v>
       </c>
@@ -52555,7 +52546,7 @@
       <c r="H948" s="3"/>
       <c r="I948" s="3"/>
       <c r="J948" s="3"/>
-      <c r="K948" s="6"/>
+      <c r="K948" s="1"/>
       <c r="L948" s="1" t="s">
         <v>25</v>
       </c>
@@ -52647,12 +52638,12 @@
       <c r="H950" s="3"/>
       <c r="I950" s="3"/>
       <c r="J950" s="3"/>
-      <c r="K950" s="6"/>
+      <c r="K950" s="1"/>
       <c r="L950" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M950" s="6"/>
-      <c r="N950" s="6"/>
+      <c r="M950" s="1"/>
+      <c r="N950" s="1"/>
       <c r="O950" s="1" t="s">
         <v>28</v>
       </c>
@@ -52741,7 +52732,7 @@
       <c r="J952" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K952" s="6"/>
+      <c r="K952" s="1"/>
       <c r="L952" s="1" t="s">
         <v>318</v>
       </c>
@@ -52791,7 +52782,7 @@
       <c r="J953" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K953" s="6"/>
+      <c r="K953" s="1"/>
       <c r="L953" s="1" t="s">
         <v>318</v>
       </c>
@@ -52891,7 +52882,7 @@
       <c r="J955" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K955" s="6"/>
+      <c r="K955" s="1"/>
       <c r="L955" s="1" t="s">
         <v>148</v>
       </c>
@@ -52941,7 +52932,7 @@
       <c r="J956" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K956" s="6"/>
+      <c r="K956" s="1"/>
       <c r="L956" s="1" t="s">
         <v>148</v>
       </c>
@@ -52991,7 +52982,7 @@
       <c r="J957" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K957" s="6"/>
+      <c r="K957" s="1"/>
       <c r="L957" s="1" t="s">
         <v>318</v>
       </c>
@@ -53095,7 +53086,7 @@
       <c r="J959" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K959" s="6"/>
+      <c r="K959" s="1"/>
       <c r="L959" s="1" t="s">
         <v>148</v>
       </c>
@@ -53145,7 +53136,7 @@
       <c r="J960" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K960" s="6"/>
+      <c r="K960" s="1"/>
       <c r="L960" s="1" t="s">
         <v>148</v>
       </c>
@@ -53195,7 +53186,7 @@
       <c r="J961" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K961" s="6"/>
+      <c r="K961" s="1"/>
       <c r="L961" s="1" t="s">
         <v>148</v>
       </c>
@@ -53241,7 +53232,7 @@
       <c r="H962" s="3"/>
       <c r="I962" s="3"/>
       <c r="J962" s="3"/>
-      <c r="K962" s="6"/>
+      <c r="K962" s="1"/>
       <c r="L962" s="1" t="s">
         <v>1176</v>
       </c>
@@ -53531,7 +53522,7 @@
       <c r="H968" s="3"/>
       <c r="I968" s="3"/>
       <c r="J968" s="3"/>
-      <c r="K968" s="6"/>
+      <c r="K968" s="1"/>
       <c r="L968" s="4" t="s">
         <v>36</v>
       </c>
@@ -53577,7 +53568,7 @@
       <c r="H969" s="3"/>
       <c r="I969" s="3"/>
       <c r="J969" s="3"/>
-      <c r="K969" s="6"/>
+      <c r="K969" s="1"/>
       <c r="L969" s="4" t="s">
         <v>36</v>
       </c>
@@ -53610,7 +53601,7 @@
       <c r="C970" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D970" s="6"/>
+      <c r="D970" s="1"/>
       <c r="E970" s="2">
         <v>44325</v>
       </c>
@@ -53903,8 +53894,8 @@
       <c r="B976" s="1" t="s">
         <v>2263</v>
       </c>
-      <c r="C976" s="6"/>
-      <c r="D976" s="6"/>
+      <c r="C976" s="1"/>
+      <c r="D976" s="1"/>
       <c r="E976" s="2">
         <v>44197</v>
       </c>
@@ -53913,7 +53904,7 @@
       <c r="H976" s="3"/>
       <c r="I976" s="3"/>
       <c r="J976" s="3"/>
-      <c r="K976" s="6"/>
+      <c r="K976" s="1"/>
       <c r="L976" s="1" t="s">
         <v>25</v>
       </c>
@@ -54065,7 +54056,7 @@
       <c r="H979" s="3"/>
       <c r="I979" s="3"/>
       <c r="J979" s="3"/>
-      <c r="K979" s="6"/>
+      <c r="K979" s="1"/>
       <c r="L979" s="1" t="s">
         <v>25</v>
       </c>
@@ -54095,7 +54086,7 @@
       <c r="B980" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C980" s="6"/>
+      <c r="C980" s="1"/>
       <c r="D980" s="1" t="s">
         <v>2268</v>
       </c>
@@ -54107,7 +54098,7 @@
       <c r="H980" s="3"/>
       <c r="I980" s="3"/>
       <c r="J980" s="3"/>
-      <c r="K980" s="6"/>
+      <c r="K980" s="1"/>
       <c r="L980" s="1" t="s">
         <v>25</v>
       </c>
@@ -54151,7 +54142,7 @@
       <c r="H981" s="3"/>
       <c r="I981" s="3"/>
       <c r="J981" s="3"/>
-      <c r="K981" s="6"/>
+      <c r="K981" s="1"/>
       <c r="L981" s="1" t="s">
         <v>25</v>
       </c>
@@ -54601,7 +54592,7 @@
       <c r="H990" s="3"/>
       <c r="I990" s="3"/>
       <c r="J990" s="3"/>
-      <c r="K990" s="6"/>
+      <c r="K990" s="1"/>
       <c r="L990" s="4" t="s">
         <v>36</v>
       </c>
@@ -54703,7 +54694,7 @@
       <c r="J992" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K992" s="6"/>
+      <c r="K992" s="1"/>
       <c r="L992" s="1" t="s">
         <v>148</v>
       </c>
@@ -54753,7 +54744,7 @@
       <c r="J993" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K993" s="6"/>
+      <c r="K993" s="1"/>
       <c r="L993" s="1" t="s">
         <v>148</v>
       </c>
@@ -54786,7 +54777,7 @@
       <c r="C994" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D994" s="6"/>
+      <c r="D994" s="1"/>
       <c r="E994" s="2">
         <v>44325</v>
       </c>
@@ -54995,7 +54986,7 @@
       <c r="H998" s="3"/>
       <c r="I998" s="3"/>
       <c r="J998" s="3"/>
-      <c r="K998" s="6"/>
+      <c r="K998" s="1"/>
       <c r="L998" s="4" t="s">
         <v>36</v>
       </c>
@@ -55039,7 +55030,7 @@
       <c r="H999" s="3"/>
       <c r="I999" s="3"/>
       <c r="J999" s="3"/>
-      <c r="K999" s="6"/>
+      <c r="K999" s="1"/>
       <c r="L999" s="4" t="s">
         <v>36</v>
       </c>
@@ -55089,7 +55080,7 @@
       <c r="J1000" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K1000" s="6"/>
+      <c r="K1000" s="1"/>
       <c r="L1000" s="1" t="s">
         <v>148</v>
       </c>
